--- a/data/open_questions_dev.xlsx
+++ b/data/open_questions_dev.xlsx
@@ -14,30 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="985">
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="977">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Betrachten Sie das Urteil des Kantonsgerichts Zug A3 2015 27 vom 27.10.2016. 
@@ -563,13 +563,13 @@
 Eintragung der von ihnen vereinbarten Rechtsgeschäfte zu klären; sie möchten dem
 Grundbuchamt alle Unterlagen, sobald sie vollständig vorliegen, gleichzeitig zur Eintragung
 einreichen. Sie legen vor:
-_x0010_ Die Grundbuchanmeldungen für sämtliche Eintragungen mit den Unterschriften von
+_x005F_x0010_ Die Grundbuchanmeldungen für sämtliche Eintragungen mit den Unterschriften von
 Anna und Beat. Die Anmeldung des Parkplatzbenützungsrechts enthält die
 Formulierung: „Die Eintragung des Parkplatzbenützungsrechts auf Grundbuchblatt 1
 darf erst erfolgen, wenn die Eintragung von Anna und Beat als Alleineigentümerin bzw.
 Alleineigentümer der Grundstücke Grundbuchblatt 1 bzw. Grundbuchblatt 2 im
 Grundbuch erfolgt ist.“
-_x0010_ Den schriftlichen Teilungsvertrag vom 6. Dezember 2016.
+_x005F_x0010_ Den schriftlichen Teilungsvertrag vom 6. Dezember 2016.
 Grundbuchverwalter Grundig (G) erachtet diese Unterlagen noch nicht als vollständig. Zudem
 vertritt er bezüglich der Unentgeltlichkeit des Parkplatzbenützungsrechts die Auffassung, dass
 ein Willensmangel vorliegen müsse, weil die mit dem Parkplatzbenützungsrecht belastete
@@ -3433,93 +3433,93 @@
 What would be your advice to the IOC’s governing body? </t>
   </si>
   <si>
-    <t>(Auszug_x0003_ in _x0003_Übersetzung _x0003_aus _x0003_P.Oxy_x0003_ VI, _x0003_907;_x0003_ 276 _x0003_n. _x0003_Chr.,_x0003__x0003_
-aus _x0003_der _x0003_Stadt _x0003_Oxyrhynchus, _x0003_160 _x0003_km_x0003_ südwestlich _x0003_von _x0003_Kairo)_x0003_
-1_x0003_ Aurelius_x0003_ Hermogenes,_x0003_ auch_x0003_ Eudaimon _x0003_genannt,_x0003_ Mitglied_x0003_ des_x0003_ städtischen_x0003_ Rates_x0003_ und _x0003_Verwalter_x0003_der_x0003__x0003_
-2_x0003_ Stadtkasse_x0003_ der_x0003_ berühmten _x0003_und_x0003_ berühmtesten _x0003_Stadt_x0003_ Oxyrhynchos _x0003_hat _x0003_diesen _x0003_letzten _x0003_Willen _x0003_in_x0003__x0003_
-3_x0003_ griechischer_x0003_ Sprache_x0003_ gemäss_x0003_ der _x0003_kaiserlichen _x0003_Verfügung 
-_x0003_diktiert:_x0003_
-4_x0003_ Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion, _x0003_Aurelius_x0003_ Herakleides, _x0003_Aurelia _x0003_Ptolemais _x0003_und _x0003_Aurelia_x0003_Didyme,_x0003__x0003_
-5_x0003_ meine_x0003_ fünf _x0003_liebsten_x0003_ Kinder, _x0003_die _x0003_ich _x0003_von _x0003_meiner _x0003_Ehefrau _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt _x0003_und _x0003_die_x0003__x0003_
-6_x0003_ matrona _x0003_stolata ist,_x0003_ habe, _x0003_sollen _x0003_gemäss_x0003_ der_x0003_ untenstehenden _x0003_Bestimmung,_x0003_ wo nach _x0003_jeder _x0003_von _x0003__x0003_
-7_x0003_ ihnen_x0003_ (so _x0003_und_x0003_ so _x0003_viel) _x0003_erhalten _x0003_soll, _x0003_meine _x0003_Erben _x0003_sein. _x0003_Die _x0003_anderen _x0003_alle _x0003_sollen _x0003_enterbt _x0003_sein. _x0003_(…)_x0003_
-8_x0003_ Sie _x0003_sollen _x0003_verpflichtet_x0003_ sein,_x0003_ all_x0003_ das_x0003_ zu_x0003_ geben,_x0003_ zu_x0003_ tun _x0003_und_x0003_ zu_x0003_ leisten,_x0003_ was_x0003_ in_x0003_ diesem_x0003_ Testament_x0003_ _x0003_
-9_x0003_ geschrieben_x0003_ steht,_x0003_ und_x0003_ ich_x0003_ vertraue _x0003_dies _x0003_ihrer _x0003_Treue_x0003_ an._x0003_
-10 _x0003_Meinen _x0003_drei _x0003_liebsten_x0003_ Söhnen _x0003_Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion _x0003_und_x0003_ Aurelius _x0003_Herakleides_x0003__x0003_
-11_x0003_ hinterlasse _x0003_ich_x0003_ gemeinsam _x0003_zu _x0003_gleichen_x0003_ Teilen _x0003_in _x0003_Anrechnung _x0003_auf _x0003_meine _x0003_Erbschaft _x0003_einen_x0003_Weinberg,_x0003_
-12 _x0003_den _x0003_ich _x0003_in_x0003_ der_x0003_ Gegend_x0003_ von_x0003_ Istrou, _x0003_nahe _x0003_am_x0003_ höheren _x0003_Tempel _x0003_der _x0003_Isis_x0003_ habe, _x0003_und_x0003_ alle_x0003_ Aruren_x0003__x0003_
-13_x0003_ Getreideland_x0003_ und_x0003_… _x0003_und _x0003_all _x0003_die _x0003_Gerätschaften _x0003_und _x0003_all _x0003_das _x0003_Zugehör _x0003_und_x0003_ all _x0003_die_x0003_ Aruren Getreideland,_x0003__x0003_
-14_x0003_ die _x0003_ich_x0003_ um_x0003_ (das _x0003_Dorf) _x0003_Sepho _x0003_herum_x0003_ habe_x0003_ und_x0003_ mein_x0003_ Haus_x0003_ in_x0003_ der_x0003_ Metropolis _x0003_und _x0003_den_x0003_ ganzen_x0003_ _x0003_
-15_x0003_ Hausrat _x0003_darin. _x0003_(…)_x0003_
-16_x0003_ Meinen _x0003_oben_x0003_ genannten _x0003_liebsten _x0003_Töchtern _x0003_Aurelia _x0003_Ptolemais _x0003_und_x0003_ Aurelia _x0003_Didyme_x0003_ hinterlasse _x0003_ich_x0003__x0003_ 
-17_x0003_ gemeinsam_x0003_ zu_x0003_ gleichen _x0003_Teilen _x0003_in _x0003_Anrechnung_x0003_ auf _x0003_meine _x0003_Erbschaft meinen _x0003_Anteil _x0003_an _x0003_einem_x0003__x0003_
-18_x0003_ Weinberg, _x0003_den_x0003_ ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ habe,_x0003_ und_x0003_ all _x0003_die_x0003_ Aruren _x0003_Getreideland _x0003_und _x0003_dazu_x0003_ all_x0003_ den_x0003__x0003_
-19_x0003_ Getreidevorschuss _x0003_und_x0003_ all _x0003_die _x0003_Gerätschaften_x0003_ und_x0003_ all _x0003_das_x0003_ Zugehör. _x0003_(…)_x0003_
-20_x0003_ Der _x0003_Aurelia _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt, _x0003_meiner _x0003_Ehefrau, _x0003_die_x0003_ sich_x0003_ in_x0003_ unserem_x0003_ Zusammenleben_x0003_gut_x0003__x0003_ 
-21_x0003_ benommen_x0003_ hat,_x0003_ vermache_x0003_ ich_x0003_ zu_x0003_ Eigentum_x0003_ alle _x0003_Aruren _x0003_Getreideland, _x0003_die _x0003_ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ in_x0003__x0003_
-22_x0003_ der _x0003_Gegend_x0003_ von_x0003_…_x0003__x0003_habe _x0003_(…)._x0003__x0003_
-23_x0003_ Zum_x0003_ Vormund_x0003_ meiner_x0003_ oben_x0003_ genannten_x0003_ drei_x0003_ unmündigen _x0003_Kinder_x0003_ Horion,_x0003_ Herakleides _x0003_und_x0003_ Didyme_x0003__x0003_
-24_x0003_ mache_x0003_ ich,_x0003_ bis _x0003_die _x0003_männlichen_x0003_ Kinder _x0003_das_x0003_ erforderliche _x0003_Alter_x0003_ erreichen _x0003_und_x0003_ die_x0003_ Tochter _x0003_heiratet,_x0003__x0003_
-25_x0003_ den _x0003_Aurelius _x0003_Demetrius, _x0003_Sohn_x0003_des _x0003_Dionysotheon,_x0003_ wobei _x0003_ihn _x0003_in_x0003_ allen_x0003_ Angelegenheiten, _x0003_die_x0003_ sich_x0003_ auf
-26_x0003_ die _x0003_Vormundschaft_x0003_ beziehen,_x0003_ meine _x0003_oben_x0003_genannte _x0003_Frau _x0003_Isidora,_x0003_ auch _x0003_Prisca _x0003_genannt,_x0003__x0003_
-27_x0003_ beaufsichtigt; _x0003_und_x0003_ deshalb _x0003_will _x0003_ich _x0003_nicht,_x0003_ dass_x0003_ sich _x0003_ein _x0003_Archon_x0003_oder_x0003_ Antarchon 
-_x0003_oder _x0003_irgendjemand_x0003__x0003_
-28_x0003_ anderes_x0003_ einmischt _x0003_(…). _x0003_(…)_x0003_
-29_x0003_ Ich _x0003_vermache_x0003_ meinem_x0003_ Freund _x0003_Aurelius _x0003_Dionysammon _x0003_Folgendes _x0003_und_x0003_ ich_x0003_ will, _x0003_dass _x0003_es _x0003_ihm_x0003_jährlich,_x0003__x0003_
-30_x0003_ solange _x0003_er_x0003_ lebt, _x0003_gegeben _x0003_wird: _x0003_aus _x0003_dem_x0003_ Weinberge _x0003_aus_x0003_…_x0003_ und _x0003_aus _x0003_den _x0003_Aruren _x0003_Getreideland, _x0003_die_x0003__x0003_
-31_x0003_ ich _x0003_in _x0003_der _x0003_Gegend _x0003_(des _x0003_Dorfes) _x0003_Moa_x0003_habe, _x0003_30 _x0003_Tonkrüge _x0003_Wein_x0003_ zur_x0003_ Zeit_x0003_ der_x0003_ Traubenlese _x0003_und_x0003_…_x0003__x0003_
-32_x0003_ Artaben 
-_x0003_Weizen _x0003_(…)._x0003_
-33_x0003_ Und _x0003_ich _x0003_will, _x0003_dass_x0003_ der_x0003_ Didyme_x0003_ zur_x0003_ Zeit _x0003_ihrer _x0003_Eheschliessung_x0003_ von_x0003_ ihren _x0003_Brüdern _x0003_vier _x0003_Talente _x0003_Silber_x0003__x0003_
-34_x0003_ gegeben_x0003_ werden_x0003_ und_x0003_ ich_x0003_ will, _x0003_dass_x0003_ dies _x0003_der _x0003_Fürsorge _x0003_meines_x0003_ Freundes_x0003_ obliegt._x0003__x0003_
-35_x0003_ Den_x0003_ letzten_x0003_ Willen _x0003_hinsichtlich _x0003_meiner _x0003_Erbschaft _x0003_habe_x0003_ ich_x0003_ in_x0003_ der _x0003_berühmten _x0003_und _x0003_berühmtesten_x0003__x0003_
-36_x0003_ Stadt _x0003_Oxyrhynchos _x0003_abgefasst _x0003_im_x0003_ ersten _x0003_Jahr_x0003_ unseres_x0003_ Herrn_x0003_ Marcus_x0003_ Claudius _x0003_Tacitus, _x0003_am_x0003_ siebten_x0003__x0003_
-37_x0003_ Tag _x0003_des _x0003_Monats _x0003_Pauni._x0003_ (…) 
+    <t>(Auszug_x005F_x0003_ in _x005F_x0003_Übersetzung _x005F_x0003_aus _x005F_x0003_P.Oxy_x005F_x0003_ VI, _x005F_x0003_907;_x005F_x0003_ 276 _x005F_x0003_n. _x005F_x0003_Chr.,_x005F_x0003__x005F_x0003_
+aus _x005F_x0003_der _x005F_x0003_Stadt _x005F_x0003_Oxyrhynchus, _x005F_x0003_160 _x005F_x0003_km_x005F_x0003_ südwestlich _x005F_x0003_von _x005F_x0003_Kairo)_x005F_x0003_
+1_x005F_x0003_ Aurelius_x005F_x0003_ Hermogenes,_x005F_x0003_ auch_x005F_x0003_ Eudaimon _x005F_x0003_genannt,_x005F_x0003_ Mitglied_x005F_x0003_ des_x005F_x0003_ städtischen_x005F_x0003_ Rates_x005F_x0003_ und _x005F_x0003_Verwalter_x005F_x0003_der_x005F_x0003__x005F_x0003_
+2_x005F_x0003_ Stadtkasse_x005F_x0003_ der_x005F_x0003_ berühmten _x005F_x0003_und_x005F_x0003_ berühmtesten _x005F_x0003_Stadt_x005F_x0003_ Oxyrhynchos _x005F_x0003_hat _x005F_x0003_diesen _x005F_x0003_letzten _x005F_x0003_Willen _x005F_x0003_in_x005F_x0003__x005F_x0003_
+3_x005F_x0003_ griechischer_x005F_x0003_ Sprache_x005F_x0003_ gemäss_x005F_x0003_ der _x005F_x0003_kaiserlichen _x005F_x0003_Verfügung 
+_x005F_x0003_diktiert:_x005F_x0003_
+4_x005F_x0003_ Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion, _x005F_x0003_Aurelius_x005F_x0003_ Herakleides, _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und _x005F_x0003_Aurelia_x005F_x0003_Didyme,_x005F_x0003__x005F_x0003_
+5_x005F_x0003_ meine_x005F_x0003_ fünf _x005F_x0003_liebsten_x005F_x0003_ Kinder, _x005F_x0003_die _x005F_x0003_ich _x005F_x0003_von _x005F_x0003_meiner _x005F_x0003_Ehefrau _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt _x005F_x0003_und _x005F_x0003_die_x005F_x0003__x005F_x0003_
+6_x005F_x0003_ matrona _x005F_x0003_stolata ist,_x005F_x0003_ habe, _x005F_x0003_sollen _x005F_x0003_gemäss_x005F_x0003_ der_x005F_x0003_ untenstehenden _x005F_x0003_Bestimmung,_x005F_x0003_ wo nach _x005F_x0003_jeder _x005F_x0003_von _x005F_x0003__x005F_x0003_
+7_x005F_x0003_ ihnen_x005F_x0003_ (so _x005F_x0003_und_x005F_x0003_ so _x005F_x0003_viel) _x005F_x0003_erhalten _x005F_x0003_soll, _x005F_x0003_meine _x005F_x0003_Erben _x005F_x0003_sein. _x005F_x0003_Die _x005F_x0003_anderen _x005F_x0003_alle _x005F_x0003_sollen _x005F_x0003_enterbt _x005F_x0003_sein. _x005F_x0003_(…)_x005F_x0003_
+8_x005F_x0003_ Sie _x005F_x0003_sollen _x005F_x0003_verpflichtet_x005F_x0003_ sein,_x005F_x0003_ all_x005F_x0003_ das_x005F_x0003_ zu_x005F_x0003_ geben,_x005F_x0003_ zu_x005F_x0003_ tun _x005F_x0003_und_x005F_x0003_ zu_x005F_x0003_ leisten,_x005F_x0003_ was_x005F_x0003_ in_x005F_x0003_ diesem_x005F_x0003_ Testament_x005F_x0003_ _x005F_x0003_
+9_x005F_x0003_ geschrieben_x005F_x0003_ steht,_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ vertraue _x005F_x0003_dies _x005F_x0003_ihrer _x005F_x0003_Treue_x005F_x0003_ an._x005F_x0003_
+10 _x005F_x0003_Meinen _x005F_x0003_drei _x005F_x0003_liebsten_x005F_x0003_ Söhnen _x005F_x0003_Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion _x005F_x0003_und_x005F_x0003_ Aurelius _x005F_x0003_Herakleides_x005F_x0003__x005F_x0003_
+11_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003_ gemeinsam _x005F_x0003_zu _x005F_x0003_gleichen_x005F_x0003_ Teilen _x005F_x0003_in _x005F_x0003_Anrechnung _x005F_x0003_auf _x005F_x0003_meine _x005F_x0003_Erbschaft _x005F_x0003_einen_x005F_x0003_Weinberg,_x005F_x0003_
+12 _x005F_x0003_den _x005F_x0003_ich _x005F_x0003_in_x005F_x0003_ der_x005F_x0003_ Gegend_x005F_x0003_ von_x005F_x0003_ Istrou, _x005F_x0003_nahe _x005F_x0003_am_x005F_x0003_ höheren _x005F_x0003_Tempel _x005F_x0003_der _x005F_x0003_Isis_x005F_x0003_ habe, _x005F_x0003_und_x005F_x0003_ alle_x005F_x0003_ Aruren_x005F_x0003__x005F_x0003_
+13_x005F_x0003_ Getreideland_x005F_x0003_ und_x005F_x0003_… _x005F_x0003_und _x005F_x0003_all _x005F_x0003_die _x005F_x0003_Gerätschaften _x005F_x0003_und _x005F_x0003_all _x005F_x0003_das _x005F_x0003_Zugehör _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren Getreideland,_x005F_x0003__x005F_x0003_
+14_x005F_x0003_ die _x005F_x0003_ich_x005F_x0003_ um_x005F_x0003_ (das _x005F_x0003_Dorf) _x005F_x0003_Sepho _x005F_x0003_herum_x005F_x0003_ habe_x005F_x0003_ und_x005F_x0003_ mein_x005F_x0003_ Haus_x005F_x0003_ in_x005F_x0003_ der_x005F_x0003_ Metropolis _x005F_x0003_und _x005F_x0003_den_x005F_x0003_ ganzen_x005F_x0003_ _x005F_x0003_
+15_x005F_x0003_ Hausrat _x005F_x0003_darin. _x005F_x0003_(…)_x005F_x0003_
+16_x005F_x0003_ Meinen _x005F_x0003_oben_x005F_x0003_ genannten _x005F_x0003_liebsten _x005F_x0003_Töchtern _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und_x005F_x0003_ Aurelia _x005F_x0003_Didyme_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003__x005F_x0003_ 
+17_x005F_x0003_ gemeinsam_x005F_x0003_ zu_x005F_x0003_ gleichen _x005F_x0003_Teilen _x005F_x0003_in _x005F_x0003_Anrechnung_x005F_x0003_ auf _x005F_x0003_meine _x005F_x0003_Erbschaft meinen _x005F_x0003_Anteil _x005F_x0003_an _x005F_x0003_einem_x005F_x0003__x005F_x0003_
+18_x005F_x0003_ Weinberg, _x005F_x0003_den_x005F_x0003_ ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ habe,_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren _x005F_x0003_Getreideland _x005F_x0003_und _x005F_x0003_dazu_x005F_x0003_ all_x005F_x0003_ den_x005F_x0003__x005F_x0003_
+19_x005F_x0003_ Getreidevorschuss _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die _x005F_x0003_Gerätschaften_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_das_x005F_x0003_ Zugehör. _x005F_x0003_(…)_x005F_x0003_
+20_x005F_x0003_ Der _x005F_x0003_Aurelia _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt, _x005F_x0003_meiner _x005F_x0003_Ehefrau, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ in_x005F_x0003_ unserem_x005F_x0003_ Zusammenleben_x005F_x0003_gut_x005F_x0003__x005F_x0003_ 
+21_x005F_x0003_ benommen_x005F_x0003_ hat,_x005F_x0003_ vermache_x005F_x0003_ ich_x005F_x0003_ zu_x005F_x0003_ Eigentum_x005F_x0003_ alle _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die _x005F_x0003_ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ in_x005F_x0003__x005F_x0003_
+22_x005F_x0003_ der _x005F_x0003_Gegend_x005F_x0003_ von_x005F_x0003_…_x005F_x0003__x005F_x0003_habe _x005F_x0003_(…)._x005F_x0003__x005F_x0003_
+23_x005F_x0003_ Zum_x005F_x0003_ Vormund_x005F_x0003_ meiner_x005F_x0003_ oben_x005F_x0003_ genannten_x005F_x0003_ drei_x005F_x0003_ unmündigen _x005F_x0003_Kinder_x005F_x0003_ Horion,_x005F_x0003_ Herakleides _x005F_x0003_und_x005F_x0003_ Didyme_x005F_x0003__x005F_x0003_
+24_x005F_x0003_ mache_x005F_x0003_ ich,_x005F_x0003_ bis _x005F_x0003_die _x005F_x0003_männlichen_x005F_x0003_ Kinder _x005F_x0003_das_x005F_x0003_ erforderliche _x005F_x0003_Alter_x005F_x0003_ erreichen _x005F_x0003_und_x005F_x0003_ die_x005F_x0003_ Tochter _x005F_x0003_heiratet,_x005F_x0003__x005F_x0003_
+25_x005F_x0003_ den _x005F_x0003_Aurelius _x005F_x0003_Demetrius, _x005F_x0003_Sohn_x005F_x0003_des _x005F_x0003_Dionysotheon,_x005F_x0003_ wobei _x005F_x0003_ihn _x005F_x0003_in_x005F_x0003_ allen_x005F_x0003_ Angelegenheiten, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ auf
+26_x005F_x0003_ die _x005F_x0003_Vormundschaft_x005F_x0003_ beziehen,_x005F_x0003_ meine _x005F_x0003_oben_x005F_x0003_genannte _x005F_x0003_Frau _x005F_x0003_Isidora,_x005F_x0003_ auch _x005F_x0003_Prisca _x005F_x0003_genannt,_x005F_x0003__x005F_x0003_
+27_x005F_x0003_ beaufsichtigt; _x005F_x0003_und_x005F_x0003_ deshalb _x005F_x0003_will _x005F_x0003_ich _x005F_x0003_nicht,_x005F_x0003_ dass_x005F_x0003_ sich _x005F_x0003_ein _x005F_x0003_Archon_x005F_x0003_oder_x005F_x0003_ Antarchon 
+_x005F_x0003_oder _x005F_x0003_irgendjemand_x005F_x0003__x005F_x0003_
+28_x005F_x0003_ anderes_x005F_x0003_ einmischt _x005F_x0003_(…). _x005F_x0003_(…)_x005F_x0003_
+29_x005F_x0003_ Ich _x005F_x0003_vermache_x005F_x0003_ meinem_x005F_x0003_ Freund _x005F_x0003_Aurelius _x005F_x0003_Dionysammon _x005F_x0003_Folgendes _x005F_x0003_und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass _x005F_x0003_es _x005F_x0003_ihm_x005F_x0003_jährlich,_x005F_x0003__x005F_x0003_
+30_x005F_x0003_ solange _x005F_x0003_er_x005F_x0003_ lebt, _x005F_x0003_gegeben _x005F_x0003_wird: _x005F_x0003_aus _x005F_x0003_dem_x005F_x0003_ Weinberge _x005F_x0003_aus_x005F_x0003_…_x005F_x0003_ und _x005F_x0003_aus _x005F_x0003_den _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die_x005F_x0003__x005F_x0003_
+31_x005F_x0003_ ich _x005F_x0003_in _x005F_x0003_der _x005F_x0003_Gegend _x005F_x0003_(des _x005F_x0003_Dorfes) _x005F_x0003_Moa_x005F_x0003_habe, _x005F_x0003_30 _x005F_x0003_Tonkrüge _x005F_x0003_Wein_x005F_x0003_ zur_x005F_x0003_ Zeit_x005F_x0003_ der_x005F_x0003_ Traubenlese _x005F_x0003_und_x005F_x0003_…_x005F_x0003__x005F_x0003_
+32_x005F_x0003_ Artaben 
+_x005F_x0003_Weizen _x005F_x0003_(…)._x005F_x0003_
+33_x005F_x0003_ Und _x005F_x0003_ich _x005F_x0003_will, _x005F_x0003_dass_x005F_x0003_ der_x005F_x0003_ Didyme_x005F_x0003_ zur_x005F_x0003_ Zeit _x005F_x0003_ihrer _x005F_x0003_Eheschliessung_x005F_x0003_ von_x005F_x0003_ ihren _x005F_x0003_Brüdern _x005F_x0003_vier _x005F_x0003_Talente _x005F_x0003_Silber_x005F_x0003__x005F_x0003_
+34_x005F_x0003_ gegeben_x005F_x0003_ werden_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass_x005F_x0003_ dies _x005F_x0003_der _x005F_x0003_Fürsorge _x005F_x0003_meines_x005F_x0003_ Freundes_x005F_x0003_ obliegt._x005F_x0003__x005F_x0003_
+35_x005F_x0003_ Den_x005F_x0003_ letzten_x005F_x0003_ Willen _x005F_x0003_hinsichtlich _x005F_x0003_meiner _x005F_x0003_Erbschaft _x005F_x0003_habe_x005F_x0003_ ich_x005F_x0003_ in_x005F_x0003_ der _x005F_x0003_berühmten _x005F_x0003_und _x005F_x0003_berühmtesten_x005F_x0003__x005F_x0003_
+36_x005F_x0003_ Stadt _x005F_x0003_Oxyrhynchos _x005F_x0003_abgefasst _x005F_x0003_im_x005F_x0003_ ersten _x005F_x0003_Jahr_x005F_x0003_ unseres_x005F_x0003_ Herrn_x005F_x0003_ Marcus_x005F_x0003_ Claudius _x005F_x0003_Tacitus, _x005F_x0003_am_x005F_x0003_ siebten_x005F_x0003__x005F_x0003_
+37_x005F_x0003_ Tag _x005F_x0003_des _x005F_x0003_Monats _x005F_x0003_Pauni._x005F_x0003_ (…) 
 Zu 20‐22: Welche Stellung hat die Aurelia Isidora im Testament des Erblassers?</t>
   </si>
   <si>
-    <t>(Auszug_x0003_ in _x0003_Übersetzung _x0003_aus _x0003_P.Oxy_x0003_ VI, _x0003_907;_x0003_ 276 _x0003_n. _x0003_Chr.,_x0003__x0003_
-aus _x0003_der _x0003_Stadt _x0003_Oxyrhynchus, _x0003_160 _x0003_km_x0003_ südwestlich _x0003_von _x0003_Kairo)_x0003_
-1_x0003_ Aurelius_x0003_ Hermogenes,_x0003_ auch_x0003_ Eudaimon _x0003_genannt,_x0003_ Mitglied_x0003_ des_x0003_ städtischen_x0003_ Rates_x0003_ und _x0003_Verwalter_x0003_der_x0003__x0003_
-2_x0003_ Stadtkasse_x0003_ der_x0003_ berühmten _x0003_und_x0003_ berühmtesten _x0003_Stadt_x0003_ Oxyrhynchos _x0003_hat _x0003_diesen _x0003_letzten _x0003_Willen _x0003_in_x0003__x0003_
-3_x0003_ griechischer_x0003_ Sprache_x0003_ gemäss_x0003_ der _x0003_kaiserlichen _x0003_Verfügung 
-_x0003_diktiert:_x0003_
-4_x0003_ Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion, _x0003_Aurelius_x0003_ Herakleides, _x0003_Aurelia _x0003_Ptolemais _x0003_und _x0003_Aurelia_x0003_Didyme,_x0003__x0003_
-5_x0003_ meine_x0003_ fünf _x0003_liebsten_x0003_ Kinder, _x0003_die _x0003_ich _x0003_von _x0003_meiner _x0003_Ehefrau _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt _x0003_und _x0003_die_x0003__x0003_
-6_x0003_ matrona _x0003_stolata ist,_x0003_ habe, _x0003_sollen _x0003_gemäss_x0003_ der_x0003_ untenstehenden _x0003_Bestimmung,_x0003_ wo nach _x0003_jeder _x0003_von _x0003__x0003_
-7_x0003_ ihnen_x0003_ (so _x0003_und_x0003_ so _x0003_viel) _x0003_erhalten _x0003_soll, _x0003_meine _x0003_Erben _x0003_sein. _x0003_Die _x0003_anderen _x0003_alle _x0003_sollen _x0003_enterbt _x0003_sein. _x0003_(…)_x0003_
-8_x0003_ Sie _x0003_sollen _x0003_verpflichtet_x0003_ sein,_x0003_ all_x0003_ das_x0003_ zu_x0003_ geben,_x0003_ zu_x0003_ tun _x0003_und_x0003_ zu_x0003_ leisten,_x0003_ was_x0003_ in_x0003_ diesem_x0003_ Testament_x0003_ _x0003_
-9_x0003_ geschrieben_x0003_ steht,_x0003_ und_x0003_ ich_x0003_ vertraue _x0003_dies _x0003_ihrer _x0003_Treue_x0003_ an._x0003_
-10 _x0003_Meinen _x0003_drei _x0003_liebsten_x0003_ Söhnen _x0003_Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion _x0003_und_x0003_ Aurelius _x0003_Herakleides_x0003__x0003_
-11_x0003_ hinterlasse _x0003_ich_x0003_ gemeinsam _x0003_zu _x0003_gleichen_x0003_ Teilen _x0003_in _x0003_Anrechnung _x0003_auf _x0003_meine _x0003_Erbschaft _x0003_einen_x0003_Weinberg,_x0003_
-12 _x0003_den _x0003_ich _x0003_in_x0003_ der_x0003_ Gegend_x0003_ von_x0003_ Istrou, _x0003_nahe _x0003_am_x0003_ höheren _x0003_Tempel _x0003_der _x0003_Isis_x0003_ habe, _x0003_und_x0003_ alle_x0003_ Aruren_x0003__x0003_
-13_x0003_ Getreideland_x0003_ und_x0003_… _x0003_und _x0003_all _x0003_die _x0003_Gerätschaften _x0003_und _x0003_all _x0003_das _x0003_Zugehör _x0003_und_x0003_ all _x0003_die_x0003_ Aruren Getreideland,_x0003__x0003_
-14_x0003_ die _x0003_ich_x0003_ um_x0003_ (das _x0003_Dorf) _x0003_Sepho _x0003_herum_x0003_ habe_x0003_ und_x0003_ mein_x0003_ Haus_x0003_ in_x0003_ der_x0003_ Metropolis _x0003_und _x0003_den_x0003_ ganzen_x0003_ _x0003_
-15_x0003_ Hausrat _x0003_darin. _x0003_(…)_x0003_
-16_x0003_ Meinen _x0003_oben_x0003_ genannten _x0003_liebsten _x0003_Töchtern _x0003_Aurelia _x0003_Ptolemais _x0003_und_x0003_ Aurelia _x0003_Didyme_x0003_ hinterlasse _x0003_ich_x0003__x0003_ 
-17_x0003_ gemeinsam_x0003_ zu_x0003_ gleichen _x0003_Teilen _x0003_in _x0003_Anrechnung_x0003_ auf _x0003_meine _x0003_Erbschaft meinen _x0003_Anteil _x0003_an _x0003_einem_x0003__x0003_
-18_x0003_ Weinberg, _x0003_den_x0003_ ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ habe,_x0003_ und_x0003_ all _x0003_die_x0003_ Aruren _x0003_Getreideland _x0003_und _x0003_dazu_x0003_ all_x0003_ den_x0003__x0003_
-19_x0003_ Getreidevorschuss _x0003_und_x0003_ all _x0003_die _x0003_Gerätschaften_x0003_ und_x0003_ all _x0003_das_x0003_ Zugehör. _x0003_(…)_x0003_
-20_x0003_ Der _x0003_Aurelia _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt, _x0003_meiner _x0003_Ehefrau, _x0003_die_x0003_ sich_x0003_ in_x0003_ unserem_x0003_ Zusammenleben_x0003_gut_x0003__x0003_ 
-21_x0003_ benommen_x0003_ hat,_x0003_ vermache_x0003_ ich_x0003_ zu_x0003_ Eigentum_x0003_ alle _x0003_Aruren _x0003_Getreideland, _x0003_die _x0003_ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ in_x0003__x0003_
-22_x0003_ der _x0003_Gegend_x0003_ von_x0003_…_x0003__x0003_habe _x0003_(…)._x0003__x0003_
-23_x0003_ Zum_x0003_ Vormund_x0003_ meiner_x0003_ oben_x0003_ genannten_x0003_ drei_x0003_ unmündigen _x0003_Kinder_x0003_ Horion,_x0003_ Herakleides _x0003_und_x0003_ Didyme_x0003__x0003_
-24_x0003_ mache_x0003_ ich,_x0003_ bis _x0003_die _x0003_männlichen_x0003_ Kinder _x0003_das_x0003_ erforderliche _x0003_Alter_x0003_ erreichen _x0003_und_x0003_ die_x0003_ Tochter _x0003_heiratet,_x0003__x0003_
-25_x0003_ den _x0003_Aurelius _x0003_Demetrius, _x0003_Sohn_x0003_des _x0003_Dionysotheon,_x0003_ wobei _x0003_ihn _x0003_in_x0003_ allen_x0003_ Angelegenheiten, _x0003_die_x0003_ sich_x0003_ auf
-26_x0003_ die _x0003_Vormundschaft_x0003_ beziehen,_x0003_ meine _x0003_oben_x0003_genannte _x0003_Frau _x0003_Isidora,_x0003_ auch _x0003_Prisca _x0003_genannt,_x0003__x0003_
-27_x0003_ beaufsichtigt; _x0003_und_x0003_ deshalb _x0003_will _x0003_ich _x0003_nicht,_x0003_ dass_x0003_ sich _x0003_ein _x0003_Archon_x0003_oder_x0003_ Antarchon 
-_x0003_oder _x0003_irgendjemand_x0003__x0003_
-28_x0003_ anderes_x0003_ einmischt _x0003_(…). _x0003_(…)_x0003_
-29_x0003_ Ich _x0003_vermache_x0003_ meinem_x0003_ Freund _x0003_Aurelius _x0003_Dionysammon _x0003_Folgendes _x0003_und_x0003_ ich_x0003_ will, _x0003_dass _x0003_es _x0003_ihm_x0003_jährlich,_x0003__x0003_
-30_x0003_ solange _x0003_er_x0003_ lebt, _x0003_gegeben _x0003_wird: _x0003_aus _x0003_dem_x0003_ Weinberge _x0003_aus_x0003_…_x0003_ und _x0003_aus _x0003_den _x0003_Aruren _x0003_Getreideland, _x0003_die_x0003__x0003_
-31_x0003_ ich _x0003_in _x0003_der _x0003_Gegend _x0003_(des _x0003_Dorfes) _x0003_Moa_x0003_habe, _x0003_30 _x0003_Tonkrüge _x0003_Wein_x0003_ zur_x0003_ Zeit_x0003_ der_x0003_ Traubenlese _x0003_und_x0003_…_x0003__x0003_
-32_x0003_ Artaben 
-_x0003_Weizen _x0003_(…)._x0003_
-33_x0003_ Und _x0003_ich _x0003_will, _x0003_dass_x0003_ der_x0003_ Didyme_x0003_ zur_x0003_ Zeit _x0003_ihrer _x0003_Eheschliessung_x0003_ von_x0003_ ihren _x0003_Brüdern _x0003_vier _x0003_Talente _x0003_Silber_x0003__x0003_
-34_x0003_ gegeben_x0003_ werden_x0003_ und_x0003_ ich_x0003_ will, _x0003_dass_x0003_ dies _x0003_der _x0003_Fürsorge _x0003_meines_x0003_ Freundes_x0003_ obliegt._x0003__x0003_
-35_x0003_ Den_x0003_ letzten_x0003_ Willen _x0003_hinsichtlich _x0003_meiner _x0003_Erbschaft _x0003_habe_x0003_ ich_x0003_ in_x0003_ der _x0003_berühmten _x0003_und _x0003_berühmtesten_x0003__x0003_
-36_x0003_ Stadt _x0003_Oxyrhynchos _x0003_abgefasst _x0003_im_x0003_ ersten _x0003_Jahr_x0003_ unseres_x0003_ Herrn_x0003_ Marcus_x0003_ Claudius _x0003_Tacitus, _x0003_am_x0003_ siebten_x0003__x0003_
-37_x0003_ Tag _x0003_des _x0003_Monats _x0003_Pauni._x0003_ (…) 
+    <t>(Auszug_x005F_x0003_ in _x005F_x0003_Übersetzung _x005F_x0003_aus _x005F_x0003_P.Oxy_x005F_x0003_ VI, _x005F_x0003_907;_x005F_x0003_ 276 _x005F_x0003_n. _x005F_x0003_Chr.,_x005F_x0003__x005F_x0003_
+aus _x005F_x0003_der _x005F_x0003_Stadt _x005F_x0003_Oxyrhynchus, _x005F_x0003_160 _x005F_x0003_km_x005F_x0003_ südwestlich _x005F_x0003_von _x005F_x0003_Kairo)_x005F_x0003_
+1_x005F_x0003_ Aurelius_x005F_x0003_ Hermogenes,_x005F_x0003_ auch_x005F_x0003_ Eudaimon _x005F_x0003_genannt,_x005F_x0003_ Mitglied_x005F_x0003_ des_x005F_x0003_ städtischen_x005F_x0003_ Rates_x005F_x0003_ und _x005F_x0003_Verwalter_x005F_x0003_der_x005F_x0003__x005F_x0003_
+2_x005F_x0003_ Stadtkasse_x005F_x0003_ der_x005F_x0003_ berühmten _x005F_x0003_und_x005F_x0003_ berühmtesten _x005F_x0003_Stadt_x005F_x0003_ Oxyrhynchos _x005F_x0003_hat _x005F_x0003_diesen _x005F_x0003_letzten _x005F_x0003_Willen _x005F_x0003_in_x005F_x0003__x005F_x0003_
+3_x005F_x0003_ griechischer_x005F_x0003_ Sprache_x005F_x0003_ gemäss_x005F_x0003_ der _x005F_x0003_kaiserlichen _x005F_x0003_Verfügung 
+_x005F_x0003_diktiert:_x005F_x0003_
+4_x005F_x0003_ Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion, _x005F_x0003_Aurelius_x005F_x0003_ Herakleides, _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und _x005F_x0003_Aurelia_x005F_x0003_Didyme,_x005F_x0003__x005F_x0003_
+5_x005F_x0003_ meine_x005F_x0003_ fünf _x005F_x0003_liebsten_x005F_x0003_ Kinder, _x005F_x0003_die _x005F_x0003_ich _x005F_x0003_von _x005F_x0003_meiner _x005F_x0003_Ehefrau _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt _x005F_x0003_und _x005F_x0003_die_x005F_x0003__x005F_x0003_
+6_x005F_x0003_ matrona _x005F_x0003_stolata ist,_x005F_x0003_ habe, _x005F_x0003_sollen _x005F_x0003_gemäss_x005F_x0003_ der_x005F_x0003_ untenstehenden _x005F_x0003_Bestimmung,_x005F_x0003_ wo nach _x005F_x0003_jeder _x005F_x0003_von _x005F_x0003__x005F_x0003_
+7_x005F_x0003_ ihnen_x005F_x0003_ (so _x005F_x0003_und_x005F_x0003_ so _x005F_x0003_viel) _x005F_x0003_erhalten _x005F_x0003_soll, _x005F_x0003_meine _x005F_x0003_Erben _x005F_x0003_sein. _x005F_x0003_Die _x005F_x0003_anderen _x005F_x0003_alle _x005F_x0003_sollen _x005F_x0003_enterbt _x005F_x0003_sein. _x005F_x0003_(…)_x005F_x0003_
+8_x005F_x0003_ Sie _x005F_x0003_sollen _x005F_x0003_verpflichtet_x005F_x0003_ sein,_x005F_x0003_ all_x005F_x0003_ das_x005F_x0003_ zu_x005F_x0003_ geben,_x005F_x0003_ zu_x005F_x0003_ tun _x005F_x0003_und_x005F_x0003_ zu_x005F_x0003_ leisten,_x005F_x0003_ was_x005F_x0003_ in_x005F_x0003_ diesem_x005F_x0003_ Testament_x005F_x0003_ _x005F_x0003_
+9_x005F_x0003_ geschrieben_x005F_x0003_ steht,_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ vertraue _x005F_x0003_dies _x005F_x0003_ihrer _x005F_x0003_Treue_x005F_x0003_ an._x005F_x0003_
+10 _x005F_x0003_Meinen _x005F_x0003_drei _x005F_x0003_liebsten_x005F_x0003_ Söhnen _x005F_x0003_Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion _x005F_x0003_und_x005F_x0003_ Aurelius _x005F_x0003_Herakleides_x005F_x0003__x005F_x0003_
+11_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003_ gemeinsam _x005F_x0003_zu _x005F_x0003_gleichen_x005F_x0003_ Teilen _x005F_x0003_in _x005F_x0003_Anrechnung _x005F_x0003_auf _x005F_x0003_meine _x005F_x0003_Erbschaft _x005F_x0003_einen_x005F_x0003_Weinberg,_x005F_x0003_
+12 _x005F_x0003_den _x005F_x0003_ich _x005F_x0003_in_x005F_x0003_ der_x005F_x0003_ Gegend_x005F_x0003_ von_x005F_x0003_ Istrou, _x005F_x0003_nahe _x005F_x0003_am_x005F_x0003_ höheren _x005F_x0003_Tempel _x005F_x0003_der _x005F_x0003_Isis_x005F_x0003_ habe, _x005F_x0003_und_x005F_x0003_ alle_x005F_x0003_ Aruren_x005F_x0003__x005F_x0003_
+13_x005F_x0003_ Getreideland_x005F_x0003_ und_x005F_x0003_… _x005F_x0003_und _x005F_x0003_all _x005F_x0003_die _x005F_x0003_Gerätschaften _x005F_x0003_und _x005F_x0003_all _x005F_x0003_das _x005F_x0003_Zugehör _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren Getreideland,_x005F_x0003__x005F_x0003_
+14_x005F_x0003_ die _x005F_x0003_ich_x005F_x0003_ um_x005F_x0003_ (das _x005F_x0003_Dorf) _x005F_x0003_Sepho _x005F_x0003_herum_x005F_x0003_ habe_x005F_x0003_ und_x005F_x0003_ mein_x005F_x0003_ Haus_x005F_x0003_ in_x005F_x0003_ der_x005F_x0003_ Metropolis _x005F_x0003_und _x005F_x0003_den_x005F_x0003_ ganzen_x005F_x0003_ _x005F_x0003_
+15_x005F_x0003_ Hausrat _x005F_x0003_darin. _x005F_x0003_(…)_x005F_x0003_
+16_x005F_x0003_ Meinen _x005F_x0003_oben_x005F_x0003_ genannten _x005F_x0003_liebsten _x005F_x0003_Töchtern _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und_x005F_x0003_ Aurelia _x005F_x0003_Didyme_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003__x005F_x0003_ 
+17_x005F_x0003_ gemeinsam_x005F_x0003_ zu_x005F_x0003_ gleichen _x005F_x0003_Teilen _x005F_x0003_in _x005F_x0003_Anrechnung_x005F_x0003_ auf _x005F_x0003_meine _x005F_x0003_Erbschaft meinen _x005F_x0003_Anteil _x005F_x0003_an _x005F_x0003_einem_x005F_x0003__x005F_x0003_
+18_x005F_x0003_ Weinberg, _x005F_x0003_den_x005F_x0003_ ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ habe,_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren _x005F_x0003_Getreideland _x005F_x0003_und _x005F_x0003_dazu_x005F_x0003_ all_x005F_x0003_ den_x005F_x0003__x005F_x0003_
+19_x005F_x0003_ Getreidevorschuss _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die _x005F_x0003_Gerätschaften_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_das_x005F_x0003_ Zugehör. _x005F_x0003_(…)_x005F_x0003_
+20_x005F_x0003_ Der _x005F_x0003_Aurelia _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt, _x005F_x0003_meiner _x005F_x0003_Ehefrau, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ in_x005F_x0003_ unserem_x005F_x0003_ Zusammenleben_x005F_x0003_gut_x005F_x0003__x005F_x0003_ 
+21_x005F_x0003_ benommen_x005F_x0003_ hat,_x005F_x0003_ vermache_x005F_x0003_ ich_x005F_x0003_ zu_x005F_x0003_ Eigentum_x005F_x0003_ alle _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die _x005F_x0003_ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ in_x005F_x0003__x005F_x0003_
+22_x005F_x0003_ der _x005F_x0003_Gegend_x005F_x0003_ von_x005F_x0003_…_x005F_x0003__x005F_x0003_habe _x005F_x0003_(…)._x005F_x0003__x005F_x0003_
+23_x005F_x0003_ Zum_x005F_x0003_ Vormund_x005F_x0003_ meiner_x005F_x0003_ oben_x005F_x0003_ genannten_x005F_x0003_ drei_x005F_x0003_ unmündigen _x005F_x0003_Kinder_x005F_x0003_ Horion,_x005F_x0003_ Herakleides _x005F_x0003_und_x005F_x0003_ Didyme_x005F_x0003__x005F_x0003_
+24_x005F_x0003_ mache_x005F_x0003_ ich,_x005F_x0003_ bis _x005F_x0003_die _x005F_x0003_männlichen_x005F_x0003_ Kinder _x005F_x0003_das_x005F_x0003_ erforderliche _x005F_x0003_Alter_x005F_x0003_ erreichen _x005F_x0003_und_x005F_x0003_ die_x005F_x0003_ Tochter _x005F_x0003_heiratet,_x005F_x0003__x005F_x0003_
+25_x005F_x0003_ den _x005F_x0003_Aurelius _x005F_x0003_Demetrius, _x005F_x0003_Sohn_x005F_x0003_des _x005F_x0003_Dionysotheon,_x005F_x0003_ wobei _x005F_x0003_ihn _x005F_x0003_in_x005F_x0003_ allen_x005F_x0003_ Angelegenheiten, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ auf
+26_x005F_x0003_ die _x005F_x0003_Vormundschaft_x005F_x0003_ beziehen,_x005F_x0003_ meine _x005F_x0003_oben_x005F_x0003_genannte _x005F_x0003_Frau _x005F_x0003_Isidora,_x005F_x0003_ auch _x005F_x0003_Prisca _x005F_x0003_genannt,_x005F_x0003__x005F_x0003_
+27_x005F_x0003_ beaufsichtigt; _x005F_x0003_und_x005F_x0003_ deshalb _x005F_x0003_will _x005F_x0003_ich _x005F_x0003_nicht,_x005F_x0003_ dass_x005F_x0003_ sich _x005F_x0003_ein _x005F_x0003_Archon_x005F_x0003_oder_x005F_x0003_ Antarchon 
+_x005F_x0003_oder _x005F_x0003_irgendjemand_x005F_x0003__x005F_x0003_
+28_x005F_x0003_ anderes_x005F_x0003_ einmischt _x005F_x0003_(…). _x005F_x0003_(…)_x005F_x0003_
+29_x005F_x0003_ Ich _x005F_x0003_vermache_x005F_x0003_ meinem_x005F_x0003_ Freund _x005F_x0003_Aurelius _x005F_x0003_Dionysammon _x005F_x0003_Folgendes _x005F_x0003_und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass _x005F_x0003_es _x005F_x0003_ihm_x005F_x0003_jährlich,_x005F_x0003__x005F_x0003_
+30_x005F_x0003_ solange _x005F_x0003_er_x005F_x0003_ lebt, _x005F_x0003_gegeben _x005F_x0003_wird: _x005F_x0003_aus _x005F_x0003_dem_x005F_x0003_ Weinberge _x005F_x0003_aus_x005F_x0003_…_x005F_x0003_ und _x005F_x0003_aus _x005F_x0003_den _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die_x005F_x0003__x005F_x0003_
+31_x005F_x0003_ ich _x005F_x0003_in _x005F_x0003_der _x005F_x0003_Gegend _x005F_x0003_(des _x005F_x0003_Dorfes) _x005F_x0003_Moa_x005F_x0003_habe, _x005F_x0003_30 _x005F_x0003_Tonkrüge _x005F_x0003_Wein_x005F_x0003_ zur_x005F_x0003_ Zeit_x005F_x0003_ der_x005F_x0003_ Traubenlese _x005F_x0003_und_x005F_x0003_…_x005F_x0003__x005F_x0003_
+32_x005F_x0003_ Artaben 
+_x005F_x0003_Weizen _x005F_x0003_(…)._x005F_x0003_
+33_x005F_x0003_ Und _x005F_x0003_ich _x005F_x0003_will, _x005F_x0003_dass_x005F_x0003_ der_x005F_x0003_ Didyme_x005F_x0003_ zur_x005F_x0003_ Zeit _x005F_x0003_ihrer _x005F_x0003_Eheschliessung_x005F_x0003_ von_x005F_x0003_ ihren _x005F_x0003_Brüdern _x005F_x0003_vier _x005F_x0003_Talente _x005F_x0003_Silber_x005F_x0003__x005F_x0003_
+34_x005F_x0003_ gegeben_x005F_x0003_ werden_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass_x005F_x0003_ dies _x005F_x0003_der _x005F_x0003_Fürsorge _x005F_x0003_meines_x005F_x0003_ Freundes_x005F_x0003_ obliegt._x005F_x0003__x005F_x0003_
+35_x005F_x0003_ Den_x005F_x0003_ letzten_x005F_x0003_ Willen _x005F_x0003_hinsichtlich _x005F_x0003_meiner _x005F_x0003_Erbschaft _x005F_x0003_habe_x005F_x0003_ ich_x005F_x0003_ in_x005F_x0003_ der _x005F_x0003_berühmten _x005F_x0003_und _x005F_x0003_berühmtesten_x005F_x0003__x005F_x0003_
+36_x005F_x0003_ Stadt _x005F_x0003_Oxyrhynchos _x005F_x0003_abgefasst _x005F_x0003_im_x005F_x0003_ ersten _x005F_x0003_Jahr_x005F_x0003_ unseres_x005F_x0003_ Herrn_x005F_x0003_ Marcus_x005F_x0003_ Claudius _x005F_x0003_Tacitus, _x005F_x0003_am_x005F_x0003_ siebten_x005F_x0003__x005F_x0003_
+37_x005F_x0003_ Tag _x005F_x0003_des _x005F_x0003_Monats _x005F_x0003_Pauni._x005F_x0003_ (…) 
 Zu 26: Was könnte der Zweck der Aufsicht der Mutter über den Vormund sein? Kennen Sie
 vergleichbare Konstruktionen aus anderen, in der Vorlesung behandelten Papyri?</t>
   </si>
@@ -3528,94 +3528,94 @@
 unterschiedlichen Status verschiedener Gemeinden!</t>
   </si>
   <si>
-    <t>(Auszug_x0003_ in _x0003_Übersetzung _x0003_aus _x0003_P.Oxy_x0003_ VI, _x0003_907;_x0003_ 276 _x0003_n. _x0003_Chr.,_x0003__x0003_
-aus _x0003_der _x0003_Stadt _x0003_Oxyrhynchus, _x0003_160 _x0003_km_x0003_ südwestlich _x0003_von _x0003_Kairo)_x0003_
-1_x0003_ Aurelius_x0003_ Hermogenes,_x0003_ auch_x0003_ Eudaimon _x0003_genannt,_x0003_ Mitglied_x0003_ des_x0003_ städtischen_x0003_ Rates_x0003_ und _x0003_Verwalter_x0003_der_x0003__x0003_
-2_x0003_ Stadtkasse_x0003_ der_x0003_ berühmten _x0003_und_x0003_ berühmtesten _x0003_Stadt_x0003_ Oxyrhynchos _x0003_hat _x0003_diesen _x0003_letzten _x0003_Willen _x0003_in_x0003__x0003_
-3_x0003_ griechischer_x0003_ Sprache_x0003_ gemäss_x0003_ der _x0003_kaiserlichen _x0003_Verfügung 
-_x0003_diktiert:_x0003_
-4_x0003_ Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion, _x0003_Aurelius_x0003_ Herakleides, _x0003_Aurelia _x0003_Ptolemais _x0003_und _x0003_Aurelia_x0003_Didyme,_x0003__x0003_
-5_x0003_ meine_x0003_ fünf _x0003_liebsten_x0003_ Kinder, _x0003_die _x0003_ich _x0003_von _x0003_meiner _x0003_Ehefrau _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt _x0003_und _x0003_die_x0003__x0003_
-6_x0003_ matrona _x0003_stolata ist,_x0003_ habe, _x0003_sollen _x0003_gemäss_x0003_ der_x0003_ untenstehenden _x0003_Bestimmung,_x0003_ wo nach _x0003_jeder _x0003_von _x0003__x0003_
-7_x0003_ ihnen_x0003_ (so _x0003_und_x0003_ so _x0003_viel) _x0003_erhalten _x0003_soll, _x0003_meine _x0003_Erben _x0003_sein. _x0003_Die _x0003_anderen _x0003_alle _x0003_sollen _x0003_enterbt _x0003_sein. _x0003_(…)_x0003_
-8_x0003_ Sie _x0003_sollen _x0003_verpflichtet_x0003_ sein,_x0003_ all_x0003_ das_x0003_ zu_x0003_ geben,_x0003_ zu_x0003_ tun _x0003_und_x0003_ zu_x0003_ leisten,_x0003_ was_x0003_ in_x0003_ diesem_x0003_ Testament_x0003_ _x0003_
-9_x0003_ geschrieben_x0003_ steht,_x0003_ und_x0003_ ich_x0003_ vertraue _x0003_dies _x0003_ihrer _x0003_Treue_x0003_ an._x0003_
-10 _x0003_Meinen _x0003_drei _x0003_liebsten_x0003_ Söhnen _x0003_Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion _x0003_und_x0003_ Aurelius _x0003_Herakleides_x0003__x0003_
-11_x0003_ hinterlasse _x0003_ich_x0003_ gemeinsam _x0003_zu _x0003_gleichen_x0003_ Teilen _x0003_in _x0003_Anrechnung _x0003_auf _x0003_meine _x0003_Erbschaft _x0003_einen_x0003_Weinberg,_x0003_
-12 _x0003_den _x0003_ich _x0003_in_x0003_ der_x0003_ Gegend_x0003_ von_x0003_ Istrou, _x0003_nahe _x0003_am_x0003_ höheren _x0003_Tempel _x0003_der _x0003_Isis_x0003_ habe, _x0003_und_x0003_ alle_x0003_ Aruren_x0003__x0003_
-13_x0003_ Getreideland_x0003_ und_x0003_… _x0003_und _x0003_all _x0003_die _x0003_Gerätschaften _x0003_und _x0003_all _x0003_das _x0003_Zugehör _x0003_und_x0003_ all _x0003_die_x0003_ Aruren Getreideland,_x0003__x0003_
-14_x0003_ die _x0003_ich_x0003_ um_x0003_ (das _x0003_Dorf) _x0003_Sepho _x0003_herum_x0003_ habe_x0003_ und_x0003_ mein_x0003_ Haus_x0003_ in_x0003_ der_x0003_ Metropolis _x0003_und _x0003_den_x0003_ ganzen_x0003_ _x0003_
-15_x0003_ Hausrat _x0003_darin. _x0003_(…)_x0003_
-16_x0003_ Meinen _x0003_oben_x0003_ genannten _x0003_liebsten _x0003_Töchtern _x0003_Aurelia _x0003_Ptolemais _x0003_und_x0003_ Aurelia _x0003_Didyme_x0003_ hinterlasse _x0003_ich_x0003__x0003_ 
-17_x0003_ gemeinsam_x0003_ zu_x0003_ gleichen _x0003_Teilen _x0003_in _x0003_Anrechnung_x0003_ auf _x0003_meine _x0003_Erbschaft meinen _x0003_Anteil _x0003_an _x0003_einem_x0003__x0003_
-18_x0003_ Weinberg, _x0003_den_x0003_ ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ habe,_x0003_ und_x0003_ all _x0003_die_x0003_ Aruren _x0003_Getreideland _x0003_und _x0003_dazu_x0003_ all_x0003_ den_x0003__x0003_
-19_x0003_ Getreidevorschuss _x0003_und_x0003_ all _x0003_die _x0003_Gerätschaften_x0003_ und_x0003_ all _x0003_das_x0003_ Zugehör. _x0003_(…)_x0003_
-20_x0003_ Der _x0003_Aurelia _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt, _x0003_meiner _x0003_Ehefrau, _x0003_die_x0003_ sich_x0003_ in_x0003_ unserem_x0003_ Zusammenleben_x0003_gut_x0003__x0003_ 
-21_x0003_ benommen_x0003_ hat,_x0003_ vermache_x0003_ ich_x0003_ zu_x0003_ Eigentum_x0003_ alle _x0003_Aruren _x0003_Getreideland, _x0003_die _x0003_ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ in_x0003__x0003_
-22_x0003_ der _x0003_Gegend_x0003_ von_x0003_…_x0003__x0003_habe _x0003_(…)._x0003__x0003_
-23_x0003_ Zum_x0003_ Vormund_x0003_ meiner_x0003_ oben_x0003_ genannten_x0003_ drei_x0003_ unmündigen _x0003_Kinder_x0003_ Horion,_x0003_ Herakleides _x0003_und_x0003_ Didyme_x0003__x0003_
-24_x0003_ mache_x0003_ ich,_x0003_ bis _x0003_die _x0003_männlichen_x0003_ Kinder _x0003_das_x0003_ erforderliche _x0003_Alter_x0003_ erreichen _x0003_und_x0003_ die_x0003_ Tochter _x0003_heiratet,_x0003__x0003_
-25_x0003_ den _x0003_Aurelius _x0003_Demetrius, _x0003_Sohn_x0003_des _x0003_Dionysotheon,_x0003_ wobei _x0003_ihn _x0003_in_x0003_ allen_x0003_ Angelegenheiten, _x0003_die_x0003_ sich_x0003_ auf
-26_x0003_ die _x0003_Vormundschaft_x0003_ beziehen,_x0003_ meine _x0003_oben_x0003_genannte _x0003_Frau _x0003_Isidora,_x0003_ auch _x0003_Prisca _x0003_genannt,_x0003__x0003_
-27_x0003_ beaufsichtigt; _x0003_und_x0003_ deshalb _x0003_will _x0003_ich _x0003_nicht,_x0003_ dass_x0003_ sich _x0003_ein _x0003_Archon_x0003_oder_x0003_ Antarchon 
-_x0003_oder _x0003_irgendjemand_x0003__x0003_
-28_x0003_ anderes_x0003_ einmischt _x0003_(…). _x0003_(…)_x0003_
-29_x0003_ Ich _x0003_vermache_x0003_ meinem_x0003_ Freund _x0003_Aurelius _x0003_Dionysammon _x0003_Folgendes _x0003_und_x0003_ ich_x0003_ will, _x0003_dass _x0003_es _x0003_ihm_x0003_jährlich,_x0003__x0003_
-30_x0003_ solange _x0003_er_x0003_ lebt, _x0003_gegeben _x0003_wird: _x0003_aus _x0003_dem_x0003_ Weinberge _x0003_aus_x0003_…_x0003_ und _x0003_aus _x0003_den _x0003_Aruren _x0003_Getreideland, _x0003_die_x0003__x0003_
-31_x0003_ ich _x0003_in _x0003_der _x0003_Gegend _x0003_(des _x0003_Dorfes) _x0003_Moa_x0003_habe, _x0003_30 _x0003_Tonkrüge _x0003_Wein_x0003_ zur_x0003_ Zeit_x0003_ der_x0003_ Traubenlese _x0003_und_x0003_…_x0003__x0003_
-32_x0003_ Artaben 
-_x0003_Weizen _x0003_(…)._x0003_
-33_x0003_ Und _x0003_ich _x0003_will, _x0003_dass_x0003_ der_x0003_ Didyme_x0003_ zur_x0003_ Zeit _x0003_ihrer _x0003_Eheschliessung_x0003_ von_x0003_ ihren _x0003_Brüdern _x0003_vier _x0003_Talente _x0003_Silber_x0003__x0003_
-34_x0003_ gegeben_x0003_ werden_x0003_ und_x0003_ ich_x0003_ will, _x0003_dass_x0003_ dies _x0003_der _x0003_Fürsorge _x0003_meines_x0003_ Freundes_x0003_ obliegt._x0003__x0003_
-35_x0003_ Den_x0003_ letzten_x0003_ Willen _x0003_hinsichtlich _x0003_meiner _x0003_Erbschaft _x0003_habe_x0003_ ich_x0003_ in_x0003_ der _x0003_berühmten _x0003_und _x0003_berühmtesten_x0003__x0003_
-36_x0003_ Stadt _x0003_Oxyrhynchos _x0003_abgefasst _x0003_im_x0003_ ersten _x0003_Jahr_x0003_ unseres_x0003_ Herrn_x0003_ Marcus_x0003_ Claudius _x0003_Tacitus, _x0003_am_x0003_ siebten_x0003__x0003_
-37_x0003_ Tag _x0003_des _x0003_Monats _x0003_Pauni._x0003_ (…) 
+    <t>(Auszug_x005F_x0003_ in _x005F_x0003_Übersetzung _x005F_x0003_aus _x005F_x0003_P.Oxy_x005F_x0003_ VI, _x005F_x0003_907;_x005F_x0003_ 276 _x005F_x0003_n. _x005F_x0003_Chr.,_x005F_x0003__x005F_x0003_
+aus _x005F_x0003_der _x005F_x0003_Stadt _x005F_x0003_Oxyrhynchus, _x005F_x0003_160 _x005F_x0003_km_x005F_x0003_ südwestlich _x005F_x0003_von _x005F_x0003_Kairo)_x005F_x0003_
+1_x005F_x0003_ Aurelius_x005F_x0003_ Hermogenes,_x005F_x0003_ auch_x005F_x0003_ Eudaimon _x005F_x0003_genannt,_x005F_x0003_ Mitglied_x005F_x0003_ des_x005F_x0003_ städtischen_x005F_x0003_ Rates_x005F_x0003_ und _x005F_x0003_Verwalter_x005F_x0003_der_x005F_x0003__x005F_x0003_
+2_x005F_x0003_ Stadtkasse_x005F_x0003_ der_x005F_x0003_ berühmten _x005F_x0003_und_x005F_x0003_ berühmtesten _x005F_x0003_Stadt_x005F_x0003_ Oxyrhynchos _x005F_x0003_hat _x005F_x0003_diesen _x005F_x0003_letzten _x005F_x0003_Willen _x005F_x0003_in_x005F_x0003__x005F_x0003_
+3_x005F_x0003_ griechischer_x005F_x0003_ Sprache_x005F_x0003_ gemäss_x005F_x0003_ der _x005F_x0003_kaiserlichen _x005F_x0003_Verfügung 
+_x005F_x0003_diktiert:_x005F_x0003_
+4_x005F_x0003_ Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion, _x005F_x0003_Aurelius_x005F_x0003_ Herakleides, _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und _x005F_x0003_Aurelia_x005F_x0003_Didyme,_x005F_x0003__x005F_x0003_
+5_x005F_x0003_ meine_x005F_x0003_ fünf _x005F_x0003_liebsten_x005F_x0003_ Kinder, _x005F_x0003_die _x005F_x0003_ich _x005F_x0003_von _x005F_x0003_meiner _x005F_x0003_Ehefrau _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt _x005F_x0003_und _x005F_x0003_die_x005F_x0003__x005F_x0003_
+6_x005F_x0003_ matrona _x005F_x0003_stolata ist,_x005F_x0003_ habe, _x005F_x0003_sollen _x005F_x0003_gemäss_x005F_x0003_ der_x005F_x0003_ untenstehenden _x005F_x0003_Bestimmung,_x005F_x0003_ wo nach _x005F_x0003_jeder _x005F_x0003_von _x005F_x0003__x005F_x0003_
+7_x005F_x0003_ ihnen_x005F_x0003_ (so _x005F_x0003_und_x005F_x0003_ so _x005F_x0003_viel) _x005F_x0003_erhalten _x005F_x0003_soll, _x005F_x0003_meine _x005F_x0003_Erben _x005F_x0003_sein. _x005F_x0003_Die _x005F_x0003_anderen _x005F_x0003_alle _x005F_x0003_sollen _x005F_x0003_enterbt _x005F_x0003_sein. _x005F_x0003_(…)_x005F_x0003_
+8_x005F_x0003_ Sie _x005F_x0003_sollen _x005F_x0003_verpflichtet_x005F_x0003_ sein,_x005F_x0003_ all_x005F_x0003_ das_x005F_x0003_ zu_x005F_x0003_ geben,_x005F_x0003_ zu_x005F_x0003_ tun _x005F_x0003_und_x005F_x0003_ zu_x005F_x0003_ leisten,_x005F_x0003_ was_x005F_x0003_ in_x005F_x0003_ diesem_x005F_x0003_ Testament_x005F_x0003_ _x005F_x0003_
+9_x005F_x0003_ geschrieben_x005F_x0003_ steht,_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ vertraue _x005F_x0003_dies _x005F_x0003_ihrer _x005F_x0003_Treue_x005F_x0003_ an._x005F_x0003_
+10 _x005F_x0003_Meinen _x005F_x0003_drei _x005F_x0003_liebsten_x005F_x0003_ Söhnen _x005F_x0003_Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion _x005F_x0003_und_x005F_x0003_ Aurelius _x005F_x0003_Herakleides_x005F_x0003__x005F_x0003_
+11_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003_ gemeinsam _x005F_x0003_zu _x005F_x0003_gleichen_x005F_x0003_ Teilen _x005F_x0003_in _x005F_x0003_Anrechnung _x005F_x0003_auf _x005F_x0003_meine _x005F_x0003_Erbschaft _x005F_x0003_einen_x005F_x0003_Weinberg,_x005F_x0003_
+12 _x005F_x0003_den _x005F_x0003_ich _x005F_x0003_in_x005F_x0003_ der_x005F_x0003_ Gegend_x005F_x0003_ von_x005F_x0003_ Istrou, _x005F_x0003_nahe _x005F_x0003_am_x005F_x0003_ höheren _x005F_x0003_Tempel _x005F_x0003_der _x005F_x0003_Isis_x005F_x0003_ habe, _x005F_x0003_und_x005F_x0003_ alle_x005F_x0003_ Aruren_x005F_x0003__x005F_x0003_
+13_x005F_x0003_ Getreideland_x005F_x0003_ und_x005F_x0003_… _x005F_x0003_und _x005F_x0003_all _x005F_x0003_die _x005F_x0003_Gerätschaften _x005F_x0003_und _x005F_x0003_all _x005F_x0003_das _x005F_x0003_Zugehör _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren Getreideland,_x005F_x0003__x005F_x0003_
+14_x005F_x0003_ die _x005F_x0003_ich_x005F_x0003_ um_x005F_x0003_ (das _x005F_x0003_Dorf) _x005F_x0003_Sepho _x005F_x0003_herum_x005F_x0003_ habe_x005F_x0003_ und_x005F_x0003_ mein_x005F_x0003_ Haus_x005F_x0003_ in_x005F_x0003_ der_x005F_x0003_ Metropolis _x005F_x0003_und _x005F_x0003_den_x005F_x0003_ ganzen_x005F_x0003_ _x005F_x0003_
+15_x005F_x0003_ Hausrat _x005F_x0003_darin. _x005F_x0003_(…)_x005F_x0003_
+16_x005F_x0003_ Meinen _x005F_x0003_oben_x005F_x0003_ genannten _x005F_x0003_liebsten _x005F_x0003_Töchtern _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und_x005F_x0003_ Aurelia _x005F_x0003_Didyme_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003__x005F_x0003_ 
+17_x005F_x0003_ gemeinsam_x005F_x0003_ zu_x005F_x0003_ gleichen _x005F_x0003_Teilen _x005F_x0003_in _x005F_x0003_Anrechnung_x005F_x0003_ auf _x005F_x0003_meine _x005F_x0003_Erbschaft meinen _x005F_x0003_Anteil _x005F_x0003_an _x005F_x0003_einem_x005F_x0003__x005F_x0003_
+18_x005F_x0003_ Weinberg, _x005F_x0003_den_x005F_x0003_ ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ habe,_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren _x005F_x0003_Getreideland _x005F_x0003_und _x005F_x0003_dazu_x005F_x0003_ all_x005F_x0003_ den_x005F_x0003__x005F_x0003_
+19_x005F_x0003_ Getreidevorschuss _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die _x005F_x0003_Gerätschaften_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_das_x005F_x0003_ Zugehör. _x005F_x0003_(…)_x005F_x0003_
+20_x005F_x0003_ Der _x005F_x0003_Aurelia _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt, _x005F_x0003_meiner _x005F_x0003_Ehefrau, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ in_x005F_x0003_ unserem_x005F_x0003_ Zusammenleben_x005F_x0003_gut_x005F_x0003__x005F_x0003_ 
+21_x005F_x0003_ benommen_x005F_x0003_ hat,_x005F_x0003_ vermache_x005F_x0003_ ich_x005F_x0003_ zu_x005F_x0003_ Eigentum_x005F_x0003_ alle _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die _x005F_x0003_ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ in_x005F_x0003__x005F_x0003_
+22_x005F_x0003_ der _x005F_x0003_Gegend_x005F_x0003_ von_x005F_x0003_…_x005F_x0003__x005F_x0003_habe _x005F_x0003_(…)._x005F_x0003__x005F_x0003_
+23_x005F_x0003_ Zum_x005F_x0003_ Vormund_x005F_x0003_ meiner_x005F_x0003_ oben_x005F_x0003_ genannten_x005F_x0003_ drei_x005F_x0003_ unmündigen _x005F_x0003_Kinder_x005F_x0003_ Horion,_x005F_x0003_ Herakleides _x005F_x0003_und_x005F_x0003_ Didyme_x005F_x0003__x005F_x0003_
+24_x005F_x0003_ mache_x005F_x0003_ ich,_x005F_x0003_ bis _x005F_x0003_die _x005F_x0003_männlichen_x005F_x0003_ Kinder _x005F_x0003_das_x005F_x0003_ erforderliche _x005F_x0003_Alter_x005F_x0003_ erreichen _x005F_x0003_und_x005F_x0003_ die_x005F_x0003_ Tochter _x005F_x0003_heiratet,_x005F_x0003__x005F_x0003_
+25_x005F_x0003_ den _x005F_x0003_Aurelius _x005F_x0003_Demetrius, _x005F_x0003_Sohn_x005F_x0003_des _x005F_x0003_Dionysotheon,_x005F_x0003_ wobei _x005F_x0003_ihn _x005F_x0003_in_x005F_x0003_ allen_x005F_x0003_ Angelegenheiten, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ auf
+26_x005F_x0003_ die _x005F_x0003_Vormundschaft_x005F_x0003_ beziehen,_x005F_x0003_ meine _x005F_x0003_oben_x005F_x0003_genannte _x005F_x0003_Frau _x005F_x0003_Isidora,_x005F_x0003_ auch _x005F_x0003_Prisca _x005F_x0003_genannt,_x005F_x0003__x005F_x0003_
+27_x005F_x0003_ beaufsichtigt; _x005F_x0003_und_x005F_x0003_ deshalb _x005F_x0003_will _x005F_x0003_ich _x005F_x0003_nicht,_x005F_x0003_ dass_x005F_x0003_ sich _x005F_x0003_ein _x005F_x0003_Archon_x005F_x0003_oder_x005F_x0003_ Antarchon 
+_x005F_x0003_oder _x005F_x0003_irgendjemand_x005F_x0003__x005F_x0003_
+28_x005F_x0003_ anderes_x005F_x0003_ einmischt _x005F_x0003_(…). _x005F_x0003_(…)_x005F_x0003_
+29_x005F_x0003_ Ich _x005F_x0003_vermache_x005F_x0003_ meinem_x005F_x0003_ Freund _x005F_x0003_Aurelius _x005F_x0003_Dionysammon _x005F_x0003_Folgendes _x005F_x0003_und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass _x005F_x0003_es _x005F_x0003_ihm_x005F_x0003_jährlich,_x005F_x0003__x005F_x0003_
+30_x005F_x0003_ solange _x005F_x0003_er_x005F_x0003_ lebt, _x005F_x0003_gegeben _x005F_x0003_wird: _x005F_x0003_aus _x005F_x0003_dem_x005F_x0003_ Weinberge _x005F_x0003_aus_x005F_x0003_…_x005F_x0003_ und _x005F_x0003_aus _x005F_x0003_den _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die_x005F_x0003__x005F_x0003_
+31_x005F_x0003_ ich _x005F_x0003_in _x005F_x0003_der _x005F_x0003_Gegend _x005F_x0003_(des _x005F_x0003_Dorfes) _x005F_x0003_Moa_x005F_x0003_habe, _x005F_x0003_30 _x005F_x0003_Tonkrüge _x005F_x0003_Wein_x005F_x0003_ zur_x005F_x0003_ Zeit_x005F_x0003_ der_x005F_x0003_ Traubenlese _x005F_x0003_und_x005F_x0003_…_x005F_x0003__x005F_x0003_
+32_x005F_x0003_ Artaben 
+_x005F_x0003_Weizen _x005F_x0003_(…)._x005F_x0003_
+33_x005F_x0003_ Und _x005F_x0003_ich _x005F_x0003_will, _x005F_x0003_dass_x005F_x0003_ der_x005F_x0003_ Didyme_x005F_x0003_ zur_x005F_x0003_ Zeit _x005F_x0003_ihrer _x005F_x0003_Eheschliessung_x005F_x0003_ von_x005F_x0003_ ihren _x005F_x0003_Brüdern _x005F_x0003_vier _x005F_x0003_Talente _x005F_x0003_Silber_x005F_x0003__x005F_x0003_
+34_x005F_x0003_ gegeben_x005F_x0003_ werden_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass_x005F_x0003_ dies _x005F_x0003_der _x005F_x0003_Fürsorge _x005F_x0003_meines_x005F_x0003_ Freundes_x005F_x0003_ obliegt._x005F_x0003__x005F_x0003_
+35_x005F_x0003_ Den_x005F_x0003_ letzten_x005F_x0003_ Willen _x005F_x0003_hinsichtlich _x005F_x0003_meiner _x005F_x0003_Erbschaft _x005F_x0003_habe_x005F_x0003_ ich_x005F_x0003_ in_x005F_x0003_ der _x005F_x0003_berühmten _x005F_x0003_und _x005F_x0003_berühmtesten_x005F_x0003__x005F_x0003_
+36_x005F_x0003_ Stadt _x005F_x0003_Oxyrhynchos _x005F_x0003_abgefasst _x005F_x0003_im_x005F_x0003_ ersten _x005F_x0003_Jahr_x005F_x0003_ unseres_x005F_x0003_ Herrn_x005F_x0003_ Marcus_x005F_x0003_ Claudius _x005F_x0003_Tacitus, _x005F_x0003_am_x005F_x0003_ siebten_x005F_x0003__x005F_x0003_
+37_x005F_x0003_ Tag _x005F_x0003_des _x005F_x0003_Monats _x005F_x0003_Pauni._x005F_x0003_ (…) 
 Zu 33 u. 34: Welche Konstruktion hat der Testator für die Mitgift der Tochter Didyme
 gewählt? Was ist die Rolle des Freundes?</t>
   </si>
   <si>
-    <t>(Auszug_x0003_ in _x0003_Übersetzung _x0003_aus _x0003_P.Oxy_x0003_ VI, _x0003_907;_x0003_ 276 _x0003_n. _x0003_Chr.,_x0003__x0003_
-aus _x0003_der _x0003_Stadt _x0003_Oxyrhynchus, _x0003_160 _x0003_km_x0003_ südwestlich _x0003_von _x0003_Kairo)_x0003_
-1_x0003_ Aurelius_x0003_ Hermogenes,_x0003_ auch_x0003_ Eudaimon _x0003_genannt,_x0003_ Mitglied_x0003_ des_x0003_ städtischen_x0003_ Rates_x0003_ und _x0003_Verwalter_x0003_der_x0003__x0003_
-2_x0003_ Stadtkasse_x0003_ der_x0003_ berühmten _x0003_und_x0003_ berühmtesten _x0003_Stadt_x0003_ Oxyrhynchos _x0003_hat _x0003_diesen _x0003_letzten _x0003_Willen _x0003_in_x0003__x0003_
-3_x0003_ griechischer_x0003_ Sprache_x0003_ gemäss_x0003_ der _x0003_kaiserlichen _x0003_Verfügung 
-_x0003_diktiert:_x0003_
-4_x0003_ Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion, _x0003_Aurelius_x0003_ Herakleides, _x0003_Aurelia _x0003_Ptolemais _x0003_und _x0003_Aurelia_x0003_Didyme,_x0003__x0003_
-5_x0003_ meine_x0003_ fünf _x0003_liebsten_x0003_ Kinder, _x0003_die _x0003_ich _x0003_von _x0003_meiner _x0003_Ehefrau _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt _x0003_und _x0003_die_x0003__x0003_
-6_x0003_ matrona _x0003_stolata ist,_x0003_ habe, _x0003_sollen _x0003_gemäss_x0003_ der_x0003_ untenstehenden _x0003_Bestimmung,_x0003_ wo nach _x0003_jeder _x0003_von _x0003__x0003_
-7_x0003_ ihnen_x0003_ (so _x0003_und_x0003_ so _x0003_viel) _x0003_erhalten _x0003_soll, _x0003_meine _x0003_Erben _x0003_sein. _x0003_Die _x0003_anderen _x0003_alle _x0003_sollen _x0003_enterbt _x0003_sein. _x0003_(…)_x0003_
-8_x0003_ Sie _x0003_sollen _x0003_verpflichtet_x0003_ sein,_x0003_ all_x0003_ das_x0003_ zu_x0003_ geben,_x0003_ zu_x0003_ tun _x0003_und_x0003_ zu_x0003_ leisten,_x0003_ was_x0003_ in_x0003_ diesem_x0003_ Testament_x0003_ _x0003_
-9_x0003_ geschrieben_x0003_ steht,_x0003_ und_x0003_ ich_x0003_ vertraue _x0003_dies _x0003_ihrer _x0003_Treue_x0003_ an._x0003_
-10 _x0003_Meinen _x0003_drei _x0003_liebsten_x0003_ Söhnen _x0003_Aurelius_x0003_ Herminus, _x0003_Aurelius_x0003_ Horion _x0003_und_x0003_ Aurelius _x0003_Herakleides_x0003__x0003_
-11_x0003_ hinterlasse _x0003_ich_x0003_ gemeinsam _x0003_zu _x0003_gleichen_x0003_ Teilen _x0003_in _x0003_Anrechnung _x0003_auf _x0003_meine _x0003_Erbschaft _x0003_einen_x0003_Weinberg,_x0003_
-12 _x0003_den _x0003_ich _x0003_in_x0003_ der_x0003_ Gegend_x0003_ von_x0003_ Istrou, _x0003_nahe _x0003_am_x0003_ höheren _x0003_Tempel _x0003_der _x0003_Isis_x0003_ habe, _x0003_und_x0003_ alle_x0003_ Aruren_x0003__x0003_
-13_x0003_ Getreideland_x0003_ und_x0003_… _x0003_und _x0003_all _x0003_die _x0003_Gerätschaften _x0003_und _x0003_all _x0003_das _x0003_Zugehör _x0003_und_x0003_ all _x0003_die_x0003_ Aruren Getreideland,_x0003__x0003_
-14_x0003_ die _x0003_ich_x0003_ um_x0003_ (das _x0003_Dorf) _x0003_Sepho _x0003_herum_x0003_ habe_x0003_ und_x0003_ mein_x0003_ Haus_x0003_ in_x0003_ der_x0003_ Metropolis _x0003_und _x0003_den_x0003_ ganzen_x0003_ _x0003_
-15_x0003_ Hausrat _x0003_darin. _x0003_(…)_x0003_
-16_x0003_ Meinen _x0003_oben_x0003_ genannten _x0003_liebsten _x0003_Töchtern _x0003_Aurelia _x0003_Ptolemais _x0003_und_x0003_ Aurelia _x0003_Didyme_x0003_ hinterlasse _x0003_ich_x0003__x0003_ 
-17_x0003_ gemeinsam_x0003_ zu_x0003_ gleichen _x0003_Teilen _x0003_in _x0003_Anrechnung_x0003_ auf _x0003_meine _x0003_Erbschaft meinen _x0003_Anteil _x0003_an _x0003_einem_x0003__x0003_
-18_x0003_ Weinberg, _x0003_den_x0003_ ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ habe,_x0003_ und_x0003_ all _x0003_die_x0003_ Aruren _x0003_Getreideland _x0003_und _x0003_dazu_x0003_ all_x0003_ den_x0003__x0003_
-19_x0003_ Getreidevorschuss _x0003_und_x0003_ all _x0003_die _x0003_Gerätschaften_x0003_ und_x0003_ all _x0003_das_x0003_ Zugehör. _x0003_(…)_x0003_
-20_x0003_ Der _x0003_Aurelia _x0003_Isidora, _x0003_auch _x0003_Prisca _x0003_genannt, _x0003_meiner _x0003_Ehefrau, _x0003_die_x0003_ sich_x0003_ in_x0003_ unserem_x0003_ Zusammenleben_x0003_gut_x0003__x0003_ 
-21_x0003_ benommen_x0003_ hat,_x0003_ vermache_x0003_ ich_x0003_ zu_x0003_ Eigentum_x0003_ alle _x0003_Aruren _x0003_Getreideland, _x0003_die _x0003_ich_x0003_ gemeinsam_x0003_ mit_x0003_…_x0003_ in_x0003__x0003_
-22_x0003_ der _x0003_Gegend_x0003_ von_x0003_…_x0003__x0003_habe _x0003_(…)._x0003__x0003_
-23_x0003_ Zum_x0003_ Vormund_x0003_ meiner_x0003_ oben_x0003_ genannten_x0003_ drei_x0003_ unmündigen _x0003_Kinder_x0003_ Horion,_x0003_ Herakleides _x0003_und_x0003_ Didyme_x0003__x0003_
-24_x0003_ mache_x0003_ ich,_x0003_ bis _x0003_die _x0003_männlichen_x0003_ Kinder _x0003_das_x0003_ erforderliche _x0003_Alter_x0003_ erreichen _x0003_und_x0003_ die_x0003_ Tochter _x0003_heiratet,_x0003__x0003_
-25_x0003_ den _x0003_Aurelius _x0003_Demetrius, _x0003_Sohn_x0003_des _x0003_Dionysotheon,_x0003_ wobei _x0003_ihn _x0003_in_x0003_ allen_x0003_ Angelegenheiten, _x0003_die_x0003_ sich_x0003_ auf
-26_x0003_ die _x0003_Vormundschaft_x0003_ beziehen,_x0003_ meine _x0003_oben_x0003_genannte _x0003_Frau _x0003_Isidora,_x0003_ auch _x0003_Prisca _x0003_genannt,_x0003__x0003_
-27_x0003_ beaufsichtigt; _x0003_und_x0003_ deshalb _x0003_will _x0003_ich _x0003_nicht,_x0003_ dass_x0003_ sich _x0003_ein _x0003_Archon_x0003_oder_x0003_ Antarchon 
-_x0003_oder _x0003_irgendjemand_x0003__x0003_
-28_x0003_ anderes_x0003_ einmischt _x0003_(…). _x0003_(…)_x0003_
-29_x0003_ Ich _x0003_vermache_x0003_ meinem_x0003_ Freund _x0003_Aurelius _x0003_Dionysammon _x0003_Folgendes _x0003_und_x0003_ ich_x0003_ will, _x0003_dass _x0003_es _x0003_ihm_x0003_jährlich,_x0003__x0003_
-30_x0003_ solange _x0003_er_x0003_ lebt, _x0003_gegeben _x0003_wird: _x0003_aus _x0003_dem_x0003_ Weinberge _x0003_aus_x0003_…_x0003_ und _x0003_aus _x0003_den _x0003_Aruren _x0003_Getreideland, _x0003_die_x0003__x0003_
-31_x0003_ ich _x0003_in _x0003_der _x0003_Gegend _x0003_(des _x0003_Dorfes) _x0003_Moa_x0003_habe, _x0003_30 _x0003_Tonkrüge _x0003_Wein_x0003_ zur_x0003_ Zeit_x0003_ der_x0003_ Traubenlese _x0003_und_x0003_…_x0003__x0003_
-32_x0003_ Artaben 
-_x0003_Weizen _x0003_(…)._x0003_
-33_x0003_ Und _x0003_ich _x0003_will, _x0003_dass_x0003_ der_x0003_ Didyme_x0003_ zur_x0003_ Zeit _x0003_ihrer _x0003_Eheschliessung_x0003_ von_x0003_ ihren _x0003_Brüdern _x0003_vier _x0003_Talente _x0003_Silber_x0003__x0003_
-34_x0003_ gegeben_x0003_ werden_x0003_ und_x0003_ ich_x0003_ will, _x0003_dass_x0003_ dies _x0003_der _x0003_Fürsorge _x0003_meines_x0003_ Freundes_x0003_ obliegt._x0003__x0003_
-35_x0003_ Den_x0003_ letzten_x0003_ Willen _x0003_hinsichtlich _x0003_meiner _x0003_Erbschaft _x0003_habe_x0003_ ich_x0003_ in_x0003_ der _x0003_berühmten _x0003_und _x0003_berühmtesten_x0003__x0003_
-36_x0003_ Stadt _x0003_Oxyrhynchos _x0003_abgefasst _x0003_im_x0003_ ersten _x0003_Jahr_x0003_ unseres_x0003_ Herrn_x0003_ Marcus_x0003_ Claudius _x0003_Tacitus, _x0003_am_x0003_ siebten_x0003__x0003_
-37_x0003_ Tag _x0003_des _x0003_Monats _x0003_Pauni._x0003_ (…) 
+    <t>(Auszug_x005F_x0003_ in _x005F_x0003_Übersetzung _x005F_x0003_aus _x005F_x0003_P.Oxy_x005F_x0003_ VI, _x005F_x0003_907;_x005F_x0003_ 276 _x005F_x0003_n. _x005F_x0003_Chr.,_x005F_x0003__x005F_x0003_
+aus _x005F_x0003_der _x005F_x0003_Stadt _x005F_x0003_Oxyrhynchus, _x005F_x0003_160 _x005F_x0003_km_x005F_x0003_ südwestlich _x005F_x0003_von _x005F_x0003_Kairo)_x005F_x0003_
+1_x005F_x0003_ Aurelius_x005F_x0003_ Hermogenes,_x005F_x0003_ auch_x005F_x0003_ Eudaimon _x005F_x0003_genannt,_x005F_x0003_ Mitglied_x005F_x0003_ des_x005F_x0003_ städtischen_x005F_x0003_ Rates_x005F_x0003_ und _x005F_x0003_Verwalter_x005F_x0003_der_x005F_x0003__x005F_x0003_
+2_x005F_x0003_ Stadtkasse_x005F_x0003_ der_x005F_x0003_ berühmten _x005F_x0003_und_x005F_x0003_ berühmtesten _x005F_x0003_Stadt_x005F_x0003_ Oxyrhynchos _x005F_x0003_hat _x005F_x0003_diesen _x005F_x0003_letzten _x005F_x0003_Willen _x005F_x0003_in_x005F_x0003__x005F_x0003_
+3_x005F_x0003_ griechischer_x005F_x0003_ Sprache_x005F_x0003_ gemäss_x005F_x0003_ der _x005F_x0003_kaiserlichen _x005F_x0003_Verfügung 
+_x005F_x0003_diktiert:_x005F_x0003_
+4_x005F_x0003_ Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion, _x005F_x0003_Aurelius_x005F_x0003_ Herakleides, _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und _x005F_x0003_Aurelia_x005F_x0003_Didyme,_x005F_x0003__x005F_x0003_
+5_x005F_x0003_ meine_x005F_x0003_ fünf _x005F_x0003_liebsten_x005F_x0003_ Kinder, _x005F_x0003_die _x005F_x0003_ich _x005F_x0003_von _x005F_x0003_meiner _x005F_x0003_Ehefrau _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt _x005F_x0003_und _x005F_x0003_die_x005F_x0003__x005F_x0003_
+6_x005F_x0003_ matrona _x005F_x0003_stolata ist,_x005F_x0003_ habe, _x005F_x0003_sollen _x005F_x0003_gemäss_x005F_x0003_ der_x005F_x0003_ untenstehenden _x005F_x0003_Bestimmung,_x005F_x0003_ wo nach _x005F_x0003_jeder _x005F_x0003_von _x005F_x0003__x005F_x0003_
+7_x005F_x0003_ ihnen_x005F_x0003_ (so _x005F_x0003_und_x005F_x0003_ so _x005F_x0003_viel) _x005F_x0003_erhalten _x005F_x0003_soll, _x005F_x0003_meine _x005F_x0003_Erben _x005F_x0003_sein. _x005F_x0003_Die _x005F_x0003_anderen _x005F_x0003_alle _x005F_x0003_sollen _x005F_x0003_enterbt _x005F_x0003_sein. _x005F_x0003_(…)_x005F_x0003_
+8_x005F_x0003_ Sie _x005F_x0003_sollen _x005F_x0003_verpflichtet_x005F_x0003_ sein,_x005F_x0003_ all_x005F_x0003_ das_x005F_x0003_ zu_x005F_x0003_ geben,_x005F_x0003_ zu_x005F_x0003_ tun _x005F_x0003_und_x005F_x0003_ zu_x005F_x0003_ leisten,_x005F_x0003_ was_x005F_x0003_ in_x005F_x0003_ diesem_x005F_x0003_ Testament_x005F_x0003_ _x005F_x0003_
+9_x005F_x0003_ geschrieben_x005F_x0003_ steht,_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ vertraue _x005F_x0003_dies _x005F_x0003_ihrer _x005F_x0003_Treue_x005F_x0003_ an._x005F_x0003_
+10 _x005F_x0003_Meinen _x005F_x0003_drei _x005F_x0003_liebsten_x005F_x0003_ Söhnen _x005F_x0003_Aurelius_x005F_x0003_ Herminus, _x005F_x0003_Aurelius_x005F_x0003_ Horion _x005F_x0003_und_x005F_x0003_ Aurelius _x005F_x0003_Herakleides_x005F_x0003__x005F_x0003_
+11_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003_ gemeinsam _x005F_x0003_zu _x005F_x0003_gleichen_x005F_x0003_ Teilen _x005F_x0003_in _x005F_x0003_Anrechnung _x005F_x0003_auf _x005F_x0003_meine _x005F_x0003_Erbschaft _x005F_x0003_einen_x005F_x0003_Weinberg,_x005F_x0003_
+12 _x005F_x0003_den _x005F_x0003_ich _x005F_x0003_in_x005F_x0003_ der_x005F_x0003_ Gegend_x005F_x0003_ von_x005F_x0003_ Istrou, _x005F_x0003_nahe _x005F_x0003_am_x005F_x0003_ höheren _x005F_x0003_Tempel _x005F_x0003_der _x005F_x0003_Isis_x005F_x0003_ habe, _x005F_x0003_und_x005F_x0003_ alle_x005F_x0003_ Aruren_x005F_x0003__x005F_x0003_
+13_x005F_x0003_ Getreideland_x005F_x0003_ und_x005F_x0003_… _x005F_x0003_und _x005F_x0003_all _x005F_x0003_die _x005F_x0003_Gerätschaften _x005F_x0003_und _x005F_x0003_all _x005F_x0003_das _x005F_x0003_Zugehör _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren Getreideland,_x005F_x0003__x005F_x0003_
+14_x005F_x0003_ die _x005F_x0003_ich_x005F_x0003_ um_x005F_x0003_ (das _x005F_x0003_Dorf) _x005F_x0003_Sepho _x005F_x0003_herum_x005F_x0003_ habe_x005F_x0003_ und_x005F_x0003_ mein_x005F_x0003_ Haus_x005F_x0003_ in_x005F_x0003_ der_x005F_x0003_ Metropolis _x005F_x0003_und _x005F_x0003_den_x005F_x0003_ ganzen_x005F_x0003_ _x005F_x0003_
+15_x005F_x0003_ Hausrat _x005F_x0003_darin. _x005F_x0003_(…)_x005F_x0003_
+16_x005F_x0003_ Meinen _x005F_x0003_oben_x005F_x0003_ genannten _x005F_x0003_liebsten _x005F_x0003_Töchtern _x005F_x0003_Aurelia _x005F_x0003_Ptolemais _x005F_x0003_und_x005F_x0003_ Aurelia _x005F_x0003_Didyme_x005F_x0003_ hinterlasse _x005F_x0003_ich_x005F_x0003__x005F_x0003_ 
+17_x005F_x0003_ gemeinsam_x005F_x0003_ zu_x005F_x0003_ gleichen _x005F_x0003_Teilen _x005F_x0003_in _x005F_x0003_Anrechnung_x005F_x0003_ auf _x005F_x0003_meine _x005F_x0003_Erbschaft meinen _x005F_x0003_Anteil _x005F_x0003_an _x005F_x0003_einem_x005F_x0003__x005F_x0003_
+18_x005F_x0003_ Weinberg, _x005F_x0003_den_x005F_x0003_ ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ habe,_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_die_x005F_x0003_ Aruren _x005F_x0003_Getreideland _x005F_x0003_und _x005F_x0003_dazu_x005F_x0003_ all_x005F_x0003_ den_x005F_x0003__x005F_x0003_
+19_x005F_x0003_ Getreidevorschuss _x005F_x0003_und_x005F_x0003_ all _x005F_x0003_die _x005F_x0003_Gerätschaften_x005F_x0003_ und_x005F_x0003_ all _x005F_x0003_das_x005F_x0003_ Zugehör. _x005F_x0003_(…)_x005F_x0003_
+20_x005F_x0003_ Der _x005F_x0003_Aurelia _x005F_x0003_Isidora, _x005F_x0003_auch _x005F_x0003_Prisca _x005F_x0003_genannt, _x005F_x0003_meiner _x005F_x0003_Ehefrau, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ in_x005F_x0003_ unserem_x005F_x0003_ Zusammenleben_x005F_x0003_gut_x005F_x0003__x005F_x0003_ 
+21_x005F_x0003_ benommen_x005F_x0003_ hat,_x005F_x0003_ vermache_x005F_x0003_ ich_x005F_x0003_ zu_x005F_x0003_ Eigentum_x005F_x0003_ alle _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die _x005F_x0003_ich_x005F_x0003_ gemeinsam_x005F_x0003_ mit_x005F_x0003_…_x005F_x0003_ in_x005F_x0003__x005F_x0003_
+22_x005F_x0003_ der _x005F_x0003_Gegend_x005F_x0003_ von_x005F_x0003_…_x005F_x0003__x005F_x0003_habe _x005F_x0003_(…)._x005F_x0003__x005F_x0003_
+23_x005F_x0003_ Zum_x005F_x0003_ Vormund_x005F_x0003_ meiner_x005F_x0003_ oben_x005F_x0003_ genannten_x005F_x0003_ drei_x005F_x0003_ unmündigen _x005F_x0003_Kinder_x005F_x0003_ Horion,_x005F_x0003_ Herakleides _x005F_x0003_und_x005F_x0003_ Didyme_x005F_x0003__x005F_x0003_
+24_x005F_x0003_ mache_x005F_x0003_ ich,_x005F_x0003_ bis _x005F_x0003_die _x005F_x0003_männlichen_x005F_x0003_ Kinder _x005F_x0003_das_x005F_x0003_ erforderliche _x005F_x0003_Alter_x005F_x0003_ erreichen _x005F_x0003_und_x005F_x0003_ die_x005F_x0003_ Tochter _x005F_x0003_heiratet,_x005F_x0003__x005F_x0003_
+25_x005F_x0003_ den _x005F_x0003_Aurelius _x005F_x0003_Demetrius, _x005F_x0003_Sohn_x005F_x0003_des _x005F_x0003_Dionysotheon,_x005F_x0003_ wobei _x005F_x0003_ihn _x005F_x0003_in_x005F_x0003_ allen_x005F_x0003_ Angelegenheiten, _x005F_x0003_die_x005F_x0003_ sich_x005F_x0003_ auf
+26_x005F_x0003_ die _x005F_x0003_Vormundschaft_x005F_x0003_ beziehen,_x005F_x0003_ meine _x005F_x0003_oben_x005F_x0003_genannte _x005F_x0003_Frau _x005F_x0003_Isidora,_x005F_x0003_ auch _x005F_x0003_Prisca _x005F_x0003_genannt,_x005F_x0003__x005F_x0003_
+27_x005F_x0003_ beaufsichtigt; _x005F_x0003_und_x005F_x0003_ deshalb _x005F_x0003_will _x005F_x0003_ich _x005F_x0003_nicht,_x005F_x0003_ dass_x005F_x0003_ sich _x005F_x0003_ein _x005F_x0003_Archon_x005F_x0003_oder_x005F_x0003_ Antarchon 
+_x005F_x0003_oder _x005F_x0003_irgendjemand_x005F_x0003__x005F_x0003_
+28_x005F_x0003_ anderes_x005F_x0003_ einmischt _x005F_x0003_(…). _x005F_x0003_(…)_x005F_x0003_
+29_x005F_x0003_ Ich _x005F_x0003_vermache_x005F_x0003_ meinem_x005F_x0003_ Freund _x005F_x0003_Aurelius _x005F_x0003_Dionysammon _x005F_x0003_Folgendes _x005F_x0003_und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass _x005F_x0003_es _x005F_x0003_ihm_x005F_x0003_jährlich,_x005F_x0003__x005F_x0003_
+30_x005F_x0003_ solange _x005F_x0003_er_x005F_x0003_ lebt, _x005F_x0003_gegeben _x005F_x0003_wird: _x005F_x0003_aus _x005F_x0003_dem_x005F_x0003_ Weinberge _x005F_x0003_aus_x005F_x0003_…_x005F_x0003_ und _x005F_x0003_aus _x005F_x0003_den _x005F_x0003_Aruren _x005F_x0003_Getreideland, _x005F_x0003_die_x005F_x0003__x005F_x0003_
+31_x005F_x0003_ ich _x005F_x0003_in _x005F_x0003_der _x005F_x0003_Gegend _x005F_x0003_(des _x005F_x0003_Dorfes) _x005F_x0003_Moa_x005F_x0003_habe, _x005F_x0003_30 _x005F_x0003_Tonkrüge _x005F_x0003_Wein_x005F_x0003_ zur_x005F_x0003_ Zeit_x005F_x0003_ der_x005F_x0003_ Traubenlese _x005F_x0003_und_x005F_x0003_…_x005F_x0003__x005F_x0003_
+32_x005F_x0003_ Artaben 
+_x005F_x0003_Weizen _x005F_x0003_(…)._x005F_x0003_
+33_x005F_x0003_ Und _x005F_x0003_ich _x005F_x0003_will, _x005F_x0003_dass_x005F_x0003_ der_x005F_x0003_ Didyme_x005F_x0003_ zur_x005F_x0003_ Zeit _x005F_x0003_ihrer _x005F_x0003_Eheschliessung_x005F_x0003_ von_x005F_x0003_ ihren _x005F_x0003_Brüdern _x005F_x0003_vier _x005F_x0003_Talente _x005F_x0003_Silber_x005F_x0003__x005F_x0003_
+34_x005F_x0003_ gegeben_x005F_x0003_ werden_x005F_x0003_ und_x005F_x0003_ ich_x005F_x0003_ will, _x005F_x0003_dass_x005F_x0003_ dies _x005F_x0003_der _x005F_x0003_Fürsorge _x005F_x0003_meines_x005F_x0003_ Freundes_x005F_x0003_ obliegt._x005F_x0003__x005F_x0003_
+35_x005F_x0003_ Den_x005F_x0003_ letzten_x005F_x0003_ Willen _x005F_x0003_hinsichtlich _x005F_x0003_meiner _x005F_x0003_Erbschaft _x005F_x0003_habe_x005F_x0003_ ich_x005F_x0003_ in_x005F_x0003_ der _x005F_x0003_berühmten _x005F_x0003_und _x005F_x0003_berühmtesten_x005F_x0003__x005F_x0003_
+36_x005F_x0003_ Stadt _x005F_x0003_Oxyrhynchos _x005F_x0003_abgefasst _x005F_x0003_im_x005F_x0003_ ersten _x005F_x0003_Jahr_x005F_x0003_ unseres_x005F_x0003_ Herrn_x005F_x0003_ Marcus_x005F_x0003_ Claudius _x005F_x0003_Tacitus, _x005F_x0003_am_x005F_x0003_ siebten_x005F_x0003__x005F_x0003_
+37_x005F_x0003_ Tag _x005F_x0003_des _x005F_x0003_Monats _x005F_x0003_Pauni._x005F_x0003_ (…) 
 Welches Bürgerrecht hat der Testator? Welche Relevanz hat diese Frage mit Blick auf den
 Errichtungszeitpunkt?</t>
   </si>
@@ -7388,14 +7388,14 @@
   </si>
   <si>
     <t>Der Notar hat im Vorverfahren folgende Prüfungspflichten:
-_x0010_ Beurkundungsbedürftigkeit (Grundstückkaufvertrag Art. 216 OR)
-_x0010_ Zuständigkeit (sachlich/örtlich; § 237 EG ZGB; §§ 1 ff. NotV ZH; BGE
+_x005F_x0010_ Beurkundungsbedürftigkeit (Grundstückkaufvertrag Art. 216 OR)
+_x005F_x0010_ Zuständigkeit (sachlich/örtlich; § 237 EG ZGB; §§ 1 ff. NotV ZH; BGE
 113 II 501 E. 3a; Folien RA, Lektion 3; Territorialitätsprinzip); örtliche Zuständigkeit des Notars, in dessen Notariatskreis das Grundstück liegt (§ 237
 Abs. 2 EG ZGB ZH; § 5 NotV ZH)
-_x0010_ Fehlen von Ausschliessungs- und Ablehnungsgründen (§ 20 NotG ZH;
+_x005F_x0010_ Fehlen von Ausschliessungs- und Ablehnungsgründen (§ 20 NotG ZH;
 §§ 74 ff. NotV ZH)
-_x0010_ Identität der Parteien (§ 239 EG ZGB ZH; §§ 12 f. NotV ZH)
-_x0010_ Vertretungsmacht (§ 239 Abs. 1 EG ZGB ZH; §§ 15 ff. NotV ZH;
+_x005F_x0010_ Identität der Parteien (§ 239 EG ZGB ZH; §§ 12 f. NotV ZH)
+_x005F_x0010_ Vertretungsmacht (§ 239 Abs. 1 EG ZGB ZH; §§ 15 ff. NotV ZH;
 Art. 564, 603, 718a, 814, 899 OR)
 x Bei Stellvertretung von juristischen Personen Überprüfung des Verfü-
 gungsrechts der für die Gesellschaft handelnden natürlichen Person/en
@@ -7424,9 +7424,9 @@
 die Beta Immobilien AG zu handeln, vorliegend bejaht werden.
 x Belege für die interne Willensbildung sind nicht erforderlich (§ 16 Abs. 1 NotV ZH; VOSER PETER, Notarielle Pflichten bei gesellschafts-
 rechtlichen Beurkundungen, S. 130)
-_x0010_ Urteils- und Handlungsfähigkeit (§ 239 Abs. 1 EG ZGB; §§ 14, 20 NotV
+_x005F_x0010_ Urteils- und Handlungsfähigkeit (§ 239 Abs. 1 EG ZGB; §§ 14, 20 NotV
 ZH)
-_x0010_ Dispositionsfähigkeit (§ 239 Abs. 1 EG ZGB ZH; § 14 Abs. 2 NotV ZH)</t>
+_x005F_x0010_ Dispositionsfähigkeit (§ 239 Abs. 1 EG ZGB ZH; § 14 Abs. 2 NotV ZH)</t>
   </si>
   <si>
     <t xml:space="preserve">Bei der im Sachverhalt beschriebenen Bestätigung handelt es sich um eine Be glaubigung. Die Beglaubigung ist eine besondere Form der Sachbeurkundung. Die Beglaubigung ist ein notarieller Vermerk auf einem privatschriftlichen Dokument. Dessen Inhalt wird durch den Beglaubigungsvermerk nicht zu einer öffentlichen Urkunde nach Art. 9 ZGB. Die Beweiswirkungen beschränken sich auf die im no tariellen Zeugnis enthaltenen Feststellungen, im Fall der Beglaubigung von Un terschriften also auf die Echtheit der Unterschriften. Diese Feststellungen hat der Notar wahrheitsgetreu vorzunehmen, d.h. er darf nur das bescheinigen, was er mit eigener Wahrnehmung festgestellt hat (vgl. Lektion 4, Folie 8; Lektionen 11 und 12, Folie 45; MÜLLER LUKAS/PAFUMI LARA, Die digitale öffentliche Urkunde im Kontext der AG [1/2], in: REPRAX 1/2020 [1/2], S. 45–61, 47 f.). Gemäss § 247 Abs. 1 EG ZGB ZH kann eine Unterschrift beglaubigt werden, in dem die Unterschrift entweder in Gegenwart des Notars angebracht wird oder aber auch, falls der Aussteller das Dokument bereits unterzeichnet hat, indem der Aus steller seine Unterschrift anerkennt. Gestützt auf Art. 247 Abs. 2 EG ZGB ZH i.V.m. § 177 NotV ZH ist der Notar zudem befugt, einer ihm bekannten Person das persönliche Erscheinen zu erlassen und die Anerkennung ihrer Unterschrift und die Unterzeichnung in der Beglaubigungskontrolle durch einen Bevollmäch tigten vollziehen zu lassen (vgl. Lektion 11 und 12, Folie 46). Den Notar trifft hinsichtlich des Inhaltes des ihm vorgelegten Dokumentes grund sätzlich keine Prüfungspflicht; er hat sich also nicht danach zu erkundigen, ob der Inhalt des Dokumentes dem Willen der unterzeichnenden Person entspricht. Wenn das Dokument einen unsittlichen oder offensichtlich widerrechtlichen Inhalt aus weist, kann der Notar jedoch die Unterschriftenbeglaubigung verweigern (vgl. SCHMID JÜRG, Beurkundungsrechtliche Spezialthemen, in: ders. [Hrsg.], Ausge wählte Fragen zum Beurkundungsverfahren / La procédure d’instrumentation des actes authentiques, Zürich 2007, S. 211–258, 229 f.; Lektion 6, Folie 33). Im vorliegenden Fall ist Anna, deren Unterschrift zu beglaubigen ist, anwesend. 
@@ -10018,30 +10018,6 @@
   </si>
   <si>
     <t>Generic</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2016</t>
   </si>
   <si>
     <t>50a77303-5f01-45d8-ba6a-759ea37ca6cf</t>
@@ -11350,11 +11326,11 @@
       <c r="F2" t="s">
         <v>674</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>2022</v>
+      </c>
+      <c r="H2" t="s">
         <v>677</v>
-      </c>
-      <c r="H2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11376,11 +11352,11 @@
       <c r="F3" t="s">
         <v>674</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
         <v>678</v>
-      </c>
-      <c r="H3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -11402,11 +11378,11 @@
       <c r="F4" t="s">
         <v>674</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>2019</v>
+      </c>
+      <c r="H4" t="s">
         <v>679</v>
-      </c>
-      <c r="H4" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -11428,11 +11404,11 @@
       <c r="F5" t="s">
         <v>674</v>
       </c>
-      <c r="G5" t="s">
-        <v>678</v>
+      <c r="G5">
+        <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -11454,11 +11430,11 @@
       <c r="F6" t="s">
         <v>674</v>
       </c>
-      <c r="G6" t="s">
-        <v>679</v>
+      <c r="G6">
+        <v>2019</v>
       </c>
       <c r="H6" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -11480,11 +11456,11 @@
       <c r="F7" t="s">
         <v>674</v>
       </c>
-      <c r="G7" t="s">
-        <v>680</v>
+      <c r="G7">
+        <v>2023</v>
       </c>
       <c r="H7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11506,11 +11482,11 @@
       <c r="F8" t="s">
         <v>674</v>
       </c>
-      <c r="G8" t="s">
-        <v>677</v>
+      <c r="G8">
+        <v>2022</v>
       </c>
       <c r="H8" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11532,11 +11508,11 @@
       <c r="F9" t="s">
         <v>674</v>
       </c>
-      <c r="G9" t="s">
-        <v>680</v>
+      <c r="G9">
+        <v>2023</v>
       </c>
       <c r="H9" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11558,11 +11534,11 @@
       <c r="F10" t="s">
         <v>674</v>
       </c>
-      <c r="G10" t="s">
-        <v>677</v>
+      <c r="G10">
+        <v>2022</v>
       </c>
       <c r="H10" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11584,11 +11560,11 @@
       <c r="F11" t="s">
         <v>674</v>
       </c>
-      <c r="G11" t="s">
-        <v>680</v>
+      <c r="G11">
+        <v>2023</v>
       </c>
       <c r="H11" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11610,11 +11586,11 @@
       <c r="F12" t="s">
         <v>674</v>
       </c>
-      <c r="G12" t="s">
-        <v>679</v>
+      <c r="G12">
+        <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11636,11 +11612,11 @@
       <c r="F13" t="s">
         <v>674</v>
       </c>
-      <c r="G13" t="s">
-        <v>681</v>
+      <c r="G13">
+        <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11662,11 +11638,11 @@
       <c r="F14" t="s">
         <v>674</v>
       </c>
-      <c r="G14" t="s">
-        <v>682</v>
+      <c r="G14">
+        <v>2018</v>
       </c>
       <c r="H14" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11688,11 +11664,11 @@
       <c r="F15" t="s">
         <v>674</v>
       </c>
-      <c r="G15" t="s">
-        <v>679</v>
+      <c r="G15">
+        <v>2019</v>
       </c>
       <c r="H15" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11714,11 +11690,11 @@
       <c r="F16" t="s">
         <v>674</v>
       </c>
-      <c r="G16" t="s">
-        <v>681</v>
+      <c r="G16">
+        <v>2017</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -11740,11 +11716,11 @@
       <c r="F17" t="s">
         <v>674</v>
       </c>
-      <c r="G17" t="s">
-        <v>682</v>
+      <c r="G17">
+        <v>2018</v>
       </c>
       <c r="H17" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -11766,11 +11742,11 @@
       <c r="F18" t="s">
         <v>674</v>
       </c>
-      <c r="G18" t="s">
-        <v>678</v>
+      <c r="G18">
+        <v>2020</v>
       </c>
       <c r="H18" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -11792,11 +11768,11 @@
       <c r="F19" t="s">
         <v>674</v>
       </c>
-      <c r="G19" t="s">
-        <v>682</v>
+      <c r="G19">
+        <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -11818,11 +11794,11 @@
       <c r="F20" t="s">
         <v>674</v>
       </c>
-      <c r="G20" t="s">
-        <v>682</v>
+      <c r="G20">
+        <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -11844,11 +11820,11 @@
       <c r="F21" t="s">
         <v>674</v>
       </c>
-      <c r="G21" t="s">
-        <v>680</v>
+      <c r="G21">
+        <v>2023</v>
       </c>
       <c r="H21" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -11870,11 +11846,11 @@
       <c r="F22" t="s">
         <v>675</v>
       </c>
-      <c r="G22" t="s">
-        <v>683</v>
+      <c r="G22">
+        <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -11896,11 +11872,11 @@
       <c r="F23" t="s">
         <v>675</v>
       </c>
-      <c r="G23" t="s">
-        <v>679</v>
+      <c r="G23">
+        <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -11922,11 +11898,11 @@
       <c r="F24" t="s">
         <v>675</v>
       </c>
-      <c r="G24" t="s">
-        <v>677</v>
+      <c r="G24">
+        <v>2022</v>
       </c>
       <c r="H24" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -11948,11 +11924,11 @@
       <c r="F25" t="s">
         <v>675</v>
       </c>
-      <c r="G25" t="s">
-        <v>679</v>
+      <c r="G25">
+        <v>2019</v>
       </c>
       <c r="H25" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -11974,11 +11950,11 @@
       <c r="F26" t="s">
         <v>675</v>
       </c>
-      <c r="G26" t="s">
-        <v>683</v>
+      <c r="G26">
+        <v>2021</v>
       </c>
       <c r="H26" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12000,11 +11976,11 @@
       <c r="F27" t="s">
         <v>674</v>
       </c>
-      <c r="G27" t="s">
-        <v>677</v>
+      <c r="G27">
+        <v>2022</v>
       </c>
       <c r="H27" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -12026,11 +12002,11 @@
       <c r="F28" t="s">
         <v>674</v>
       </c>
-      <c r="G28" t="s">
-        <v>680</v>
+      <c r="G28">
+        <v>2023</v>
       </c>
       <c r="H28" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -12052,11 +12028,11 @@
       <c r="F29" t="s">
         <v>674</v>
       </c>
-      <c r="G29" t="s">
-        <v>680</v>
+      <c r="G29">
+        <v>2023</v>
       </c>
       <c r="H29" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -12078,11 +12054,11 @@
       <c r="F30" t="s">
         <v>674</v>
       </c>
-      <c r="G30" t="s">
-        <v>677</v>
+      <c r="G30">
+        <v>2022</v>
       </c>
       <c r="H30" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -12104,11 +12080,11 @@
       <c r="F31" t="s">
         <v>674</v>
       </c>
-      <c r="G31" t="s">
-        <v>680</v>
+      <c r="G31">
+        <v>2023</v>
       </c>
       <c r="H31" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -12130,11 +12106,11 @@
       <c r="F32" t="s">
         <v>675</v>
       </c>
-      <c r="G32" t="s">
-        <v>680</v>
+      <c r="G32">
+        <v>2023</v>
       </c>
       <c r="H32" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -12156,11 +12132,11 @@
       <c r="F33" t="s">
         <v>675</v>
       </c>
-      <c r="G33" t="s">
-        <v>677</v>
+      <c r="G33">
+        <v>2022</v>
       </c>
       <c r="H33" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -12182,11 +12158,11 @@
       <c r="F34" t="s">
         <v>675</v>
       </c>
-      <c r="G34" t="s">
-        <v>678</v>
+      <c r="G34">
+        <v>2020</v>
       </c>
       <c r="H34" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -12208,11 +12184,11 @@
       <c r="F35" t="s">
         <v>675</v>
       </c>
-      <c r="G35" t="s">
-        <v>680</v>
+      <c r="G35">
+        <v>2023</v>
       </c>
       <c r="H35" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -12234,11 +12210,11 @@
       <c r="F36" t="s">
         <v>675</v>
       </c>
-      <c r="G36" t="s">
-        <v>677</v>
+      <c r="G36">
+        <v>2022</v>
       </c>
       <c r="H36" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -12260,11 +12236,11 @@
       <c r="F37" t="s">
         <v>675</v>
       </c>
-      <c r="G37" t="s">
-        <v>677</v>
+      <c r="G37">
+        <v>2022</v>
       </c>
       <c r="H37" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -12286,11 +12262,11 @@
       <c r="F38" t="s">
         <v>675</v>
       </c>
-      <c r="G38" t="s">
-        <v>683</v>
+      <c r="G38">
+        <v>2021</v>
       </c>
       <c r="H38" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -12312,11 +12288,11 @@
       <c r="F39" t="s">
         <v>675</v>
       </c>
-      <c r="G39" t="s">
-        <v>677</v>
+      <c r="G39">
+        <v>2022</v>
       </c>
       <c r="H39" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -12338,11 +12314,11 @@
       <c r="F40" t="s">
         <v>675</v>
       </c>
-      <c r="G40" t="s">
-        <v>683</v>
+      <c r="G40">
+        <v>2021</v>
       </c>
       <c r="H40" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -12364,11 +12340,11 @@
       <c r="F41" t="s">
         <v>675</v>
       </c>
-      <c r="G41" t="s">
-        <v>677</v>
+      <c r="G41">
+        <v>2022</v>
       </c>
       <c r="H41" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -12390,11 +12366,11 @@
       <c r="F42" t="s">
         <v>674</v>
       </c>
-      <c r="G42" t="s">
-        <v>682</v>
+      <c r="G42">
+        <v>2018</v>
       </c>
       <c r="H42" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -12416,11 +12392,11 @@
       <c r="F43" t="s">
         <v>674</v>
       </c>
-      <c r="G43" t="s">
-        <v>678</v>
+      <c r="G43">
+        <v>2020</v>
       </c>
       <c r="H43" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -12442,11 +12418,11 @@
       <c r="F44" t="s">
         <v>674</v>
       </c>
-      <c r="G44" t="s">
-        <v>679</v>
+      <c r="G44">
+        <v>2019</v>
       </c>
       <c r="H44" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -12468,11 +12444,11 @@
       <c r="F45" t="s">
         <v>674</v>
       </c>
-      <c r="G45" t="s">
-        <v>679</v>
+      <c r="G45">
+        <v>2019</v>
       </c>
       <c r="H45" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -12494,11 +12470,11 @@
       <c r="F46" t="s">
         <v>674</v>
       </c>
-      <c r="G46" t="s">
-        <v>678</v>
+      <c r="G46">
+        <v>2020</v>
       </c>
       <c r="H46" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -12520,11 +12496,11 @@
       <c r="F47" t="s">
         <v>674</v>
       </c>
-      <c r="G47" t="s">
-        <v>679</v>
+      <c r="G47">
+        <v>2019</v>
       </c>
       <c r="H47" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -12546,11 +12522,11 @@
       <c r="F48" t="s">
         <v>674</v>
       </c>
-      <c r="G48" t="s">
-        <v>683</v>
+      <c r="G48">
+        <v>2021</v>
       </c>
       <c r="H48" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -12572,11 +12548,11 @@
       <c r="F49" t="s">
         <v>674</v>
       </c>
-      <c r="G49" t="s">
-        <v>681</v>
+      <c r="G49">
+        <v>2017</v>
       </c>
       <c r="H49" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -12598,11 +12574,11 @@
       <c r="F50" t="s">
         <v>674</v>
       </c>
-      <c r="G50" t="s">
-        <v>681</v>
+      <c r="G50">
+        <v>2017</v>
       </c>
       <c r="H50" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -12624,11 +12600,11 @@
       <c r="F51" t="s">
         <v>674</v>
       </c>
-      <c r="G51" t="s">
-        <v>683</v>
+      <c r="G51">
+        <v>2021</v>
       </c>
       <c r="H51" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -12650,11 +12626,11 @@
       <c r="F52" t="s">
         <v>674</v>
       </c>
-      <c r="G52" t="s">
-        <v>680</v>
+      <c r="G52">
+        <v>2023</v>
       </c>
       <c r="H52" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -12676,11 +12652,11 @@
       <c r="F53" t="s">
         <v>674</v>
       </c>
-      <c r="G53" t="s">
-        <v>680</v>
+      <c r="G53">
+        <v>2023</v>
       </c>
       <c r="H53" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -12702,11 +12678,11 @@
       <c r="F54" t="s">
         <v>674</v>
       </c>
-      <c r="G54" t="s">
-        <v>677</v>
+      <c r="G54">
+        <v>2022</v>
       </c>
       <c r="H54" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -12728,11 +12704,11 @@
       <c r="F55" t="s">
         <v>674</v>
       </c>
-      <c r="G55" t="s">
-        <v>677</v>
+      <c r="G55">
+        <v>2022</v>
       </c>
       <c r="H55" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -12754,11 +12730,11 @@
       <c r="F56" t="s">
         <v>674</v>
       </c>
-      <c r="G56" t="s">
-        <v>677</v>
+      <c r="G56">
+        <v>2022</v>
       </c>
       <c r="H56" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -12780,11 +12756,11 @@
       <c r="F57" t="s">
         <v>674</v>
       </c>
-      <c r="G57" t="s">
-        <v>680</v>
+      <c r="G57">
+        <v>2023</v>
       </c>
       <c r="H57" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -12806,11 +12782,11 @@
       <c r="F58" t="s">
         <v>674</v>
       </c>
-      <c r="G58" t="s">
-        <v>677</v>
+      <c r="G58">
+        <v>2022</v>
       </c>
       <c r="H58" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -12832,11 +12808,11 @@
       <c r="F59" t="s">
         <v>674</v>
       </c>
-      <c r="G59" t="s">
-        <v>679</v>
+      <c r="G59">
+        <v>2019</v>
       </c>
       <c r="H59" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -12858,11 +12834,11 @@
       <c r="F60" t="s">
         <v>674</v>
       </c>
-      <c r="G60" t="s">
-        <v>678</v>
+      <c r="G60">
+        <v>2020</v>
       </c>
       <c r="H60" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -12884,11 +12860,11 @@
       <c r="F61" t="s">
         <v>674</v>
       </c>
-      <c r="G61" t="s">
-        <v>684</v>
+      <c r="G61">
+        <v>2016</v>
       </c>
       <c r="H61" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -12910,11 +12886,11 @@
       <c r="F62" t="s">
         <v>676</v>
       </c>
-      <c r="G62" t="s">
-        <v>677</v>
+      <c r="G62">
+        <v>2022</v>
       </c>
       <c r="H62" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -12936,11 +12912,11 @@
       <c r="F63" t="s">
         <v>676</v>
       </c>
-      <c r="G63" t="s">
-        <v>683</v>
+      <c r="G63">
+        <v>2021</v>
       </c>
       <c r="H63" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -12962,11 +12938,11 @@
       <c r="F64" t="s">
         <v>676</v>
       </c>
-      <c r="G64" t="s">
-        <v>677</v>
+      <c r="G64">
+        <v>2022</v>
       </c>
       <c r="H64" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -12988,11 +12964,11 @@
       <c r="F65" t="s">
         <v>676</v>
       </c>
-      <c r="G65" t="s">
-        <v>683</v>
+      <c r="G65">
+        <v>2021</v>
       </c>
       <c r="H65" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -13014,11 +12990,11 @@
       <c r="F66" t="s">
         <v>676</v>
       </c>
-      <c r="G66" t="s">
-        <v>677</v>
+      <c r="G66">
+        <v>2022</v>
       </c>
       <c r="H66" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -13040,11 +13016,11 @@
       <c r="F67" t="s">
         <v>674</v>
       </c>
-      <c r="G67" t="s">
-        <v>677</v>
+      <c r="G67">
+        <v>2022</v>
       </c>
       <c r="H67" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -13066,11 +13042,11 @@
       <c r="F68" t="s">
         <v>674</v>
       </c>
-      <c r="G68" t="s">
-        <v>682</v>
+      <c r="G68">
+        <v>2018</v>
       </c>
       <c r="H68" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -13092,11 +13068,11 @@
       <c r="F69" t="s">
         <v>674</v>
       </c>
-      <c r="G69" t="s">
-        <v>682</v>
+      <c r="G69">
+        <v>2018</v>
       </c>
       <c r="H69" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -13118,11 +13094,11 @@
       <c r="F70" t="s">
         <v>674</v>
       </c>
-      <c r="G70" t="s">
-        <v>682</v>
+      <c r="G70">
+        <v>2018</v>
       </c>
       <c r="H70" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -13144,11 +13120,11 @@
       <c r="F71" t="s">
         <v>674</v>
       </c>
-      <c r="G71" t="s">
-        <v>683</v>
+      <c r="G71">
+        <v>2021</v>
       </c>
       <c r="H71" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -13170,11 +13146,11 @@
       <c r="F72" t="s">
         <v>674</v>
       </c>
-      <c r="G72" t="s">
-        <v>678</v>
+      <c r="G72">
+        <v>2020</v>
       </c>
       <c r="H72" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -13196,11 +13172,11 @@
       <c r="F73" t="s">
         <v>674</v>
       </c>
-      <c r="G73" t="s">
-        <v>678</v>
+      <c r="G73">
+        <v>2020</v>
       </c>
       <c r="H73" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -13222,11 +13198,11 @@
       <c r="F74" t="s">
         <v>674</v>
       </c>
-      <c r="G74" t="s">
-        <v>682</v>
+      <c r="G74">
+        <v>2018</v>
       </c>
       <c r="H74" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -13248,11 +13224,11 @@
       <c r="F75" t="s">
         <v>674</v>
       </c>
-      <c r="G75" t="s">
-        <v>678</v>
+      <c r="G75">
+        <v>2020</v>
       </c>
       <c r="H75" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -13274,11 +13250,11 @@
       <c r="F76" t="s">
         <v>674</v>
       </c>
-      <c r="G76" t="s">
-        <v>682</v>
+      <c r="G76">
+        <v>2018</v>
       </c>
       <c r="H76" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -13300,11 +13276,11 @@
       <c r="F77" t="s">
         <v>675</v>
       </c>
-      <c r="G77" t="s">
-        <v>681</v>
+      <c r="G77">
+        <v>2017</v>
       </c>
       <c r="H77" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -13326,11 +13302,11 @@
       <c r="F78" t="s">
         <v>675</v>
       </c>
-      <c r="G78" t="s">
-        <v>682</v>
+      <c r="G78">
+        <v>2018</v>
       </c>
       <c r="H78" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -13352,11 +13328,11 @@
       <c r="F79" t="s">
         <v>675</v>
       </c>
-      <c r="G79" t="s">
-        <v>683</v>
+      <c r="G79">
+        <v>2021</v>
       </c>
       <c r="H79" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -13378,11 +13354,11 @@
       <c r="F80" t="s">
         <v>675</v>
       </c>
-      <c r="G80" t="s">
-        <v>682</v>
+      <c r="G80">
+        <v>2018</v>
       </c>
       <c r="H80" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -13404,11 +13380,11 @@
       <c r="F81" t="s">
         <v>675</v>
       </c>
-      <c r="G81" t="s">
-        <v>681</v>
+      <c r="G81">
+        <v>2017</v>
       </c>
       <c r="H81" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -13430,11 +13406,11 @@
       <c r="F82" t="s">
         <v>675</v>
       </c>
-      <c r="G82" t="s">
-        <v>680</v>
+      <c r="G82">
+        <v>2023</v>
       </c>
       <c r="H82" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -13456,11 +13432,11 @@
       <c r="F83" t="s">
         <v>675</v>
       </c>
-      <c r="G83" t="s">
-        <v>677</v>
+      <c r="G83">
+        <v>2022</v>
       </c>
       <c r="H83" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -13482,11 +13458,11 @@
       <c r="F84" t="s">
         <v>675</v>
       </c>
-      <c r="G84" t="s">
-        <v>680</v>
+      <c r="G84">
+        <v>2023</v>
       </c>
       <c r="H84" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -13508,11 +13484,11 @@
       <c r="F85" t="s">
         <v>675</v>
       </c>
-      <c r="G85" t="s">
-        <v>677</v>
+      <c r="G85">
+        <v>2022</v>
       </c>
       <c r="H85" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -13534,11 +13510,11 @@
       <c r="F86" t="s">
         <v>675</v>
       </c>
-      <c r="G86" t="s">
-        <v>680</v>
+      <c r="G86">
+        <v>2023</v>
       </c>
       <c r="H86" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -13560,11 +13536,11 @@
       <c r="F87" t="s">
         <v>675</v>
       </c>
-      <c r="G87" t="s">
-        <v>677</v>
+      <c r="G87">
+        <v>2022</v>
       </c>
       <c r="H87" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -13586,11 +13562,11 @@
       <c r="F88" t="s">
         <v>675</v>
       </c>
-      <c r="G88" t="s">
-        <v>683</v>
+      <c r="G88">
+        <v>2021</v>
       </c>
       <c r="H88" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -13612,11 +13588,11 @@
       <c r="F89" t="s">
         <v>675</v>
       </c>
-      <c r="G89" t="s">
-        <v>680</v>
+      <c r="G89">
+        <v>2023</v>
       </c>
       <c r="H89" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -13638,11 +13614,11 @@
       <c r="F90" t="s">
         <v>675</v>
       </c>
-      <c r="G90" t="s">
-        <v>679</v>
+      <c r="G90">
+        <v>2019</v>
       </c>
       <c r="H90" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -13664,11 +13640,11 @@
       <c r="F91" t="s">
         <v>675</v>
       </c>
-      <c r="G91" t="s">
-        <v>677</v>
+      <c r="G91">
+        <v>2022</v>
       </c>
       <c r="H91" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -13690,11 +13666,11 @@
       <c r="F92" t="s">
         <v>675</v>
       </c>
-      <c r="G92" t="s">
-        <v>677</v>
+      <c r="G92">
+        <v>2022</v>
       </c>
       <c r="H92" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -13716,11 +13692,11 @@
       <c r="F93" t="s">
         <v>675</v>
       </c>
-      <c r="G93" t="s">
-        <v>680</v>
+      <c r="G93">
+        <v>2023</v>
       </c>
       <c r="H93" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -13742,11 +13718,11 @@
       <c r="F94" t="s">
         <v>675</v>
       </c>
-      <c r="G94" t="s">
-        <v>677</v>
+      <c r="G94">
+        <v>2022</v>
       </c>
       <c r="H94" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -13768,11 +13744,11 @@
       <c r="F95" t="s">
         <v>675</v>
       </c>
-      <c r="G95" t="s">
-        <v>677</v>
+      <c r="G95">
+        <v>2022</v>
       </c>
       <c r="H95" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -13794,11 +13770,11 @@
       <c r="F96" t="s">
         <v>675</v>
       </c>
-      <c r="G96" t="s">
-        <v>680</v>
+      <c r="G96">
+        <v>2023</v>
       </c>
       <c r="H96" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -13820,11 +13796,11 @@
       <c r="F97" t="s">
         <v>675</v>
       </c>
-      <c r="G97" t="s">
-        <v>677</v>
+      <c r="G97">
+        <v>2022</v>
       </c>
       <c r="H97" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -13846,11 +13822,11 @@
       <c r="F98" t="s">
         <v>675</v>
       </c>
-      <c r="G98" t="s">
-        <v>683</v>
+      <c r="G98">
+        <v>2021</v>
       </c>
       <c r="H98" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -13872,11 +13848,11 @@
       <c r="F99" t="s">
         <v>675</v>
       </c>
-      <c r="G99" t="s">
-        <v>683</v>
+      <c r="G99">
+        <v>2021</v>
       </c>
       <c r="H99" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -13898,11 +13874,11 @@
       <c r="F100" t="s">
         <v>675</v>
       </c>
-      <c r="G100" t="s">
-        <v>677</v>
+      <c r="G100">
+        <v>2022</v>
       </c>
       <c r="H100" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -13924,11 +13900,11 @@
       <c r="F101" t="s">
         <v>675</v>
       </c>
-      <c r="G101" t="s">
-        <v>677</v>
+      <c r="G101">
+        <v>2022</v>
       </c>
       <c r="H101" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -13950,11 +13926,11 @@
       <c r="F102" t="s">
         <v>675</v>
       </c>
-      <c r="G102" t="s">
-        <v>681</v>
+      <c r="G102">
+        <v>2017</v>
       </c>
       <c r="H102" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -13976,11 +13952,11 @@
       <c r="F103" t="s">
         <v>675</v>
       </c>
-      <c r="G103" t="s">
-        <v>677</v>
+      <c r="G103">
+        <v>2022</v>
       </c>
       <c r="H103" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -14002,11 +13978,11 @@
       <c r="F104" t="s">
         <v>675</v>
       </c>
-      <c r="G104" t="s">
-        <v>680</v>
+      <c r="G104">
+        <v>2023</v>
       </c>
       <c r="H104" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -14028,11 +14004,11 @@
       <c r="F105" t="s">
         <v>675</v>
       </c>
-      <c r="G105" t="s">
-        <v>682</v>
+      <c r="G105">
+        <v>2018</v>
       </c>
       <c r="H105" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -14054,11 +14030,11 @@
       <c r="F106" t="s">
         <v>675</v>
       </c>
-      <c r="G106" t="s">
-        <v>683</v>
+      <c r="G106">
+        <v>2021</v>
       </c>
       <c r="H106" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -14080,11 +14056,11 @@
       <c r="F107" t="s">
         <v>675</v>
       </c>
-      <c r="G107" t="s">
-        <v>678</v>
+      <c r="G107">
+        <v>2020</v>
       </c>
       <c r="H107" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -14106,11 +14082,11 @@
       <c r="F108" t="s">
         <v>675</v>
       </c>
-      <c r="G108" t="s">
-        <v>678</v>
+      <c r="G108">
+        <v>2020</v>
       </c>
       <c r="H108" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -14132,11 +14108,11 @@
       <c r="F109" t="s">
         <v>675</v>
       </c>
-      <c r="G109" t="s">
-        <v>678</v>
+      <c r="G109">
+        <v>2020</v>
       </c>
       <c r="H109" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -14158,11 +14134,11 @@
       <c r="F110" t="s">
         <v>675</v>
       </c>
-      <c r="G110" t="s">
-        <v>678</v>
+      <c r="G110">
+        <v>2020</v>
       </c>
       <c r="H110" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -14184,11 +14160,11 @@
       <c r="F111" t="s">
         <v>675</v>
       </c>
-      <c r="G111" t="s">
-        <v>678</v>
+      <c r="G111">
+        <v>2020</v>
       </c>
       <c r="H111" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -14210,11 +14186,11 @@
       <c r="F112" t="s">
         <v>675</v>
       </c>
-      <c r="G112" t="s">
-        <v>681</v>
+      <c r="G112">
+        <v>2017</v>
       </c>
       <c r="H112" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -14236,11 +14212,11 @@
       <c r="F113" t="s">
         <v>675</v>
       </c>
-      <c r="G113" t="s">
-        <v>681</v>
+      <c r="G113">
+        <v>2017</v>
       </c>
       <c r="H113" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -14262,11 +14238,11 @@
       <c r="F114" t="s">
         <v>675</v>
       </c>
-      <c r="G114" t="s">
-        <v>678</v>
+      <c r="G114">
+        <v>2020</v>
       </c>
       <c r="H114" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -14288,11 +14264,11 @@
       <c r="F115" t="s">
         <v>675</v>
       </c>
-      <c r="G115" t="s">
-        <v>679</v>
+      <c r="G115">
+        <v>2019</v>
       </c>
       <c r="H115" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -14314,11 +14290,11 @@
       <c r="F116" t="s">
         <v>675</v>
       </c>
-      <c r="G116" t="s">
-        <v>681</v>
+      <c r="G116">
+        <v>2017</v>
       </c>
       <c r="H116" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -14340,11 +14316,11 @@
       <c r="F117" t="s">
         <v>675</v>
       </c>
-      <c r="G117" t="s">
-        <v>679</v>
+      <c r="G117">
+        <v>2019</v>
       </c>
       <c r="H117" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -14366,11 +14342,11 @@
       <c r="F118" t="s">
         <v>675</v>
       </c>
-      <c r="G118" t="s">
-        <v>679</v>
+      <c r="G118">
+        <v>2019</v>
       </c>
       <c r="H118" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -14392,11 +14368,11 @@
       <c r="F119" t="s">
         <v>675</v>
       </c>
-      <c r="G119" t="s">
-        <v>683</v>
+      <c r="G119">
+        <v>2021</v>
       </c>
       <c r="H119" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -14418,11 +14394,11 @@
       <c r="F120" t="s">
         <v>675</v>
       </c>
-      <c r="G120" t="s">
-        <v>682</v>
+      <c r="G120">
+        <v>2018</v>
       </c>
       <c r="H120" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -14444,11 +14420,11 @@
       <c r="F121" t="s">
         <v>675</v>
       </c>
-      <c r="G121" t="s">
-        <v>681</v>
+      <c r="G121">
+        <v>2017</v>
       </c>
       <c r="H121" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -14470,11 +14446,11 @@
       <c r="F122" t="s">
         <v>675</v>
       </c>
-      <c r="G122" t="s">
-        <v>679</v>
+      <c r="G122">
+        <v>2019</v>
       </c>
       <c r="H122" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -14496,11 +14472,11 @@
       <c r="F123" t="s">
         <v>675</v>
       </c>
-      <c r="G123" t="s">
-        <v>680</v>
+      <c r="G123">
+        <v>2023</v>
       </c>
       <c r="H123" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -14522,11 +14498,11 @@
       <c r="F124" t="s">
         <v>675</v>
       </c>
-      <c r="G124" t="s">
-        <v>679</v>
+      <c r="G124">
+        <v>2019</v>
       </c>
       <c r="H124" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -14548,11 +14524,11 @@
       <c r="F125" t="s">
         <v>675</v>
       </c>
-      <c r="G125" t="s">
-        <v>677</v>
+      <c r="G125">
+        <v>2022</v>
       </c>
       <c r="H125" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -14574,11 +14550,11 @@
       <c r="F126" t="s">
         <v>675</v>
       </c>
-      <c r="G126" t="s">
-        <v>677</v>
+      <c r="G126">
+        <v>2022</v>
       </c>
       <c r="H126" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -14600,11 +14576,11 @@
       <c r="F127" t="s">
         <v>674</v>
       </c>
-      <c r="G127" t="s">
-        <v>682</v>
+      <c r="G127">
+        <v>2018</v>
       </c>
       <c r="H127" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -14626,11 +14602,11 @@
       <c r="F128" t="s">
         <v>674</v>
       </c>
-      <c r="G128" t="s">
-        <v>684</v>
+      <c r="G128">
+        <v>2016</v>
       </c>
       <c r="H128" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -14652,11 +14628,11 @@
       <c r="F129" t="s">
         <v>674</v>
       </c>
-      <c r="G129" t="s">
-        <v>684</v>
+      <c r="G129">
+        <v>2016</v>
       </c>
       <c r="H129" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -14678,11 +14654,11 @@
       <c r="F130" t="s">
         <v>674</v>
       </c>
-      <c r="G130" t="s">
-        <v>682</v>
+      <c r="G130">
+        <v>2018</v>
       </c>
       <c r="H130" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -14704,11 +14680,11 @@
       <c r="F131" t="s">
         <v>674</v>
       </c>
-      <c r="G131" t="s">
-        <v>681</v>
+      <c r="G131">
+        <v>2017</v>
       </c>
       <c r="H131" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -14730,11 +14706,11 @@
       <c r="F132" t="s">
         <v>676</v>
       </c>
-      <c r="G132" t="s">
-        <v>679</v>
+      <c r="G132">
+        <v>2019</v>
       </c>
       <c r="H132" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -14756,11 +14732,11 @@
       <c r="F133" t="s">
         <v>676</v>
       </c>
-      <c r="G133" t="s">
-        <v>679</v>
+      <c r="G133">
+        <v>2019</v>
       </c>
       <c r="H133" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -14782,11 +14758,11 @@
       <c r="F134" t="s">
         <v>676</v>
       </c>
-      <c r="G134" t="s">
-        <v>677</v>
+      <c r="G134">
+        <v>2022</v>
       </c>
       <c r="H134" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -14808,11 +14784,11 @@
       <c r="F135" t="s">
         <v>676</v>
       </c>
-      <c r="G135" t="s">
-        <v>680</v>
+      <c r="G135">
+        <v>2023</v>
       </c>
       <c r="H135" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -14834,11 +14810,11 @@
       <c r="F136" t="s">
         <v>676</v>
       </c>
-      <c r="G136" t="s">
-        <v>679</v>
+      <c r="G136">
+        <v>2019</v>
       </c>
       <c r="H136" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -14860,11 +14836,11 @@
       <c r="F137" t="s">
         <v>674</v>
       </c>
-      <c r="G137" t="s">
-        <v>678</v>
+      <c r="G137">
+        <v>2020</v>
       </c>
       <c r="H137" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -14886,11 +14862,11 @@
       <c r="F138" t="s">
         <v>674</v>
       </c>
-      <c r="G138" t="s">
-        <v>678</v>
+      <c r="G138">
+        <v>2020</v>
       </c>
       <c r="H138" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -14912,11 +14888,11 @@
       <c r="F139" t="s">
         <v>674</v>
       </c>
-      <c r="G139" t="s">
-        <v>678</v>
+      <c r="G139">
+        <v>2020</v>
       </c>
       <c r="H139" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -14938,11 +14914,11 @@
       <c r="F140" t="s">
         <v>674</v>
       </c>
-      <c r="G140" t="s">
-        <v>679</v>
+      <c r="G140">
+        <v>2019</v>
       </c>
       <c r="H140" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -14964,11 +14940,11 @@
       <c r="F141" t="s">
         <v>674</v>
       </c>
-      <c r="G141" t="s">
-        <v>679</v>
+      <c r="G141">
+        <v>2019</v>
       </c>
       <c r="H141" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -14990,11 +14966,11 @@
       <c r="F142" t="s">
         <v>674</v>
       </c>
-      <c r="G142" t="s">
-        <v>682</v>
+      <c r="G142">
+        <v>2018</v>
       </c>
       <c r="H142" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -15016,11 +14992,11 @@
       <c r="F143" t="s">
         <v>674</v>
       </c>
-      <c r="G143" t="s">
-        <v>682</v>
+      <c r="G143">
+        <v>2018</v>
       </c>
       <c r="H143" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -15042,11 +15018,11 @@
       <c r="F144" t="s">
         <v>674</v>
       </c>
-      <c r="G144" t="s">
-        <v>683</v>
+      <c r="G144">
+        <v>2021</v>
       </c>
       <c r="H144" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -15068,11 +15044,11 @@
       <c r="F145" t="s">
         <v>674</v>
       </c>
-      <c r="G145" t="s">
-        <v>684</v>
+      <c r="G145">
+        <v>2016</v>
       </c>
       <c r="H145" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -15094,11 +15070,11 @@
       <c r="F146" t="s">
         <v>674</v>
       </c>
-      <c r="G146" t="s">
-        <v>682</v>
+      <c r="G146">
+        <v>2018</v>
       </c>
       <c r="H146" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -15120,11 +15096,11 @@
       <c r="F147" t="s">
         <v>676</v>
       </c>
-      <c r="G147" t="s">
-        <v>679</v>
+      <c r="G147">
+        <v>2019</v>
       </c>
       <c r="H147" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -15146,11 +15122,11 @@
       <c r="F148" t="s">
         <v>676</v>
       </c>
-      <c r="G148" t="s">
-        <v>679</v>
+      <c r="G148">
+        <v>2019</v>
       </c>
       <c r="H148" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -15172,11 +15148,11 @@
       <c r="F149" t="s">
         <v>676</v>
       </c>
-      <c r="G149" t="s">
-        <v>679</v>
+      <c r="G149">
+        <v>2019</v>
       </c>
       <c r="H149" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -15198,11 +15174,11 @@
       <c r="F150" t="s">
         <v>676</v>
       </c>
-      <c r="G150" t="s">
-        <v>677</v>
+      <c r="G150">
+        <v>2022</v>
       </c>
       <c r="H150" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -15224,11 +15200,11 @@
       <c r="F151" t="s">
         <v>676</v>
       </c>
-      <c r="G151" t="s">
-        <v>679</v>
+      <c r="G151">
+        <v>2019</v>
       </c>
       <c r="H151" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -15250,11 +15226,11 @@
       <c r="F152" t="s">
         <v>676</v>
       </c>
-      <c r="G152" t="s">
-        <v>682</v>
+      <c r="G152">
+        <v>2018</v>
       </c>
       <c r="H152" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -15276,11 +15252,11 @@
       <c r="F153" t="s">
         <v>676</v>
       </c>
-      <c r="G153" t="s">
-        <v>683</v>
+      <c r="G153">
+        <v>2021</v>
       </c>
       <c r="H153" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -15302,11 +15278,11 @@
       <c r="F154" t="s">
         <v>676</v>
       </c>
-      <c r="G154" t="s">
-        <v>682</v>
+      <c r="G154">
+        <v>2018</v>
       </c>
       <c r="H154" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -15328,11 +15304,11 @@
       <c r="F155" t="s">
         <v>676</v>
       </c>
-      <c r="G155" t="s">
-        <v>679</v>
+      <c r="G155">
+        <v>2019</v>
       </c>
       <c r="H155" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -15354,11 +15330,11 @@
       <c r="F156" t="s">
         <v>676</v>
       </c>
-      <c r="G156" t="s">
-        <v>677</v>
+      <c r="G156">
+        <v>2022</v>
       </c>
       <c r="H156" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -15380,11 +15356,11 @@
       <c r="F157" t="s">
         <v>674</v>
       </c>
-      <c r="G157" t="s">
-        <v>684</v>
+      <c r="G157">
+        <v>2016</v>
       </c>
       <c r="H157" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -15406,11 +15382,11 @@
       <c r="F158" t="s">
         <v>674</v>
       </c>
-      <c r="G158" t="s">
-        <v>679</v>
+      <c r="G158">
+        <v>2019</v>
       </c>
       <c r="H158" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -15432,11 +15408,11 @@
       <c r="F159" t="s">
         <v>674</v>
       </c>
-      <c r="G159" t="s">
-        <v>682</v>
+      <c r="G159">
+        <v>2018</v>
       </c>
       <c r="H159" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -15458,11 +15434,11 @@
       <c r="F160" t="s">
         <v>674</v>
       </c>
-      <c r="G160" t="s">
-        <v>678</v>
+      <c r="G160">
+        <v>2020</v>
       </c>
       <c r="H160" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -15484,11 +15460,11 @@
       <c r="F161" t="s">
         <v>674</v>
       </c>
-      <c r="G161" t="s">
-        <v>682</v>
+      <c r="G161">
+        <v>2018</v>
       </c>
       <c r="H161" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -15510,11 +15486,11 @@
       <c r="F162" t="s">
         <v>674</v>
       </c>
-      <c r="G162" t="s">
-        <v>678</v>
+      <c r="G162">
+        <v>2020</v>
       </c>
       <c r="H162" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -15536,11 +15512,11 @@
       <c r="F163" t="s">
         <v>674</v>
       </c>
-      <c r="G163" t="s">
-        <v>678</v>
+      <c r="G163">
+        <v>2020</v>
       </c>
       <c r="H163" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -15562,11 +15538,11 @@
       <c r="F164" t="s">
         <v>674</v>
       </c>
-      <c r="G164" t="s">
-        <v>677</v>
+      <c r="G164">
+        <v>2022</v>
       </c>
       <c r="H164" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -15588,11 +15564,11 @@
       <c r="F165" t="s">
         <v>674</v>
       </c>
-      <c r="G165" t="s">
-        <v>678</v>
+      <c r="G165">
+        <v>2020</v>
       </c>
       <c r="H165" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -15614,11 +15590,11 @@
       <c r="F166" t="s">
         <v>674</v>
       </c>
-      <c r="G166" t="s">
-        <v>683</v>
+      <c r="G166">
+        <v>2021</v>
       </c>
       <c r="H166" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -15640,11 +15616,11 @@
       <c r="F167" t="s">
         <v>674</v>
       </c>
-      <c r="G167" t="s">
-        <v>678</v>
+      <c r="G167">
+        <v>2020</v>
       </c>
       <c r="H167" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -15666,11 +15642,11 @@
       <c r="F168" t="s">
         <v>674</v>
       </c>
-      <c r="G168" t="s">
-        <v>680</v>
+      <c r="G168">
+        <v>2023</v>
       </c>
       <c r="H168" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -15692,11 +15668,11 @@
       <c r="F169" t="s">
         <v>674</v>
       </c>
-      <c r="G169" t="s">
-        <v>678</v>
+      <c r="G169">
+        <v>2020</v>
       </c>
       <c r="H169" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -15718,11 +15694,11 @@
       <c r="F170" t="s">
         <v>674</v>
       </c>
-      <c r="G170" t="s">
-        <v>677</v>
+      <c r="G170">
+        <v>2022</v>
       </c>
       <c r="H170" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -15744,11 +15720,11 @@
       <c r="F171" t="s">
         <v>674</v>
       </c>
-      <c r="G171" t="s">
-        <v>683</v>
+      <c r="G171">
+        <v>2021</v>
       </c>
       <c r="H171" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -15770,11 +15746,11 @@
       <c r="F172" t="s">
         <v>674</v>
       </c>
-      <c r="G172" t="s">
-        <v>682</v>
+      <c r="G172">
+        <v>2018</v>
       </c>
       <c r="H172" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -15796,11 +15772,11 @@
       <c r="F173" t="s">
         <v>674</v>
       </c>
-      <c r="G173" t="s">
-        <v>683</v>
+      <c r="G173">
+        <v>2021</v>
       </c>
       <c r="H173" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -15822,11 +15798,11 @@
       <c r="F174" t="s">
         <v>674</v>
       </c>
-      <c r="G174" t="s">
-        <v>682</v>
+      <c r="G174">
+        <v>2018</v>
       </c>
       <c r="H174" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -15848,11 +15824,11 @@
       <c r="F175" t="s">
         <v>674</v>
       </c>
-      <c r="G175" t="s">
-        <v>679</v>
+      <c r="G175">
+        <v>2019</v>
       </c>
       <c r="H175" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -15874,11 +15850,11 @@
       <c r="F176" t="s">
         <v>674</v>
       </c>
-      <c r="G176" t="s">
-        <v>680</v>
+      <c r="G176">
+        <v>2023</v>
       </c>
       <c r="H176" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -15900,11 +15876,11 @@
       <c r="F177" t="s">
         <v>674</v>
       </c>
-      <c r="G177" t="s">
-        <v>677</v>
+      <c r="G177">
+        <v>2022</v>
       </c>
       <c r="H177" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -15926,11 +15902,11 @@
       <c r="F178" t="s">
         <v>674</v>
       </c>
-      <c r="G178" t="s">
-        <v>678</v>
+      <c r="G178">
+        <v>2020</v>
       </c>
       <c r="H178" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -15952,11 +15928,11 @@
       <c r="F179" t="s">
         <v>674</v>
       </c>
-      <c r="G179" t="s">
-        <v>677</v>
+      <c r="G179">
+        <v>2022</v>
       </c>
       <c r="H179" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -15978,11 +15954,11 @@
       <c r="F180" t="s">
         <v>674</v>
       </c>
-      <c r="G180" t="s">
-        <v>682</v>
+      <c r="G180">
+        <v>2018</v>
       </c>
       <c r="H180" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -16004,11 +15980,11 @@
       <c r="F181" t="s">
         <v>674</v>
       </c>
-      <c r="G181" t="s">
-        <v>677</v>
+      <c r="G181">
+        <v>2022</v>
       </c>
       <c r="H181" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -16030,11 +16006,11 @@
       <c r="F182" t="s">
         <v>674</v>
       </c>
-      <c r="G182" t="s">
-        <v>682</v>
+      <c r="G182">
+        <v>2018</v>
       </c>
       <c r="H182" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -16056,11 +16032,11 @@
       <c r="F183" t="s">
         <v>674</v>
       </c>
-      <c r="G183" t="s">
-        <v>684</v>
+      <c r="G183">
+        <v>2016</v>
       </c>
       <c r="H183" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -16082,11 +16058,11 @@
       <c r="F184" t="s">
         <v>674</v>
       </c>
-      <c r="G184" t="s">
-        <v>681</v>
+      <c r="G184">
+        <v>2017</v>
       </c>
       <c r="H184" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -16108,11 +16084,11 @@
       <c r="F185" t="s">
         <v>674</v>
       </c>
-      <c r="G185" t="s">
-        <v>682</v>
+      <c r="G185">
+        <v>2018</v>
       </c>
       <c r="H185" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -16134,11 +16110,11 @@
       <c r="F186" t="s">
         <v>674</v>
       </c>
-      <c r="G186" t="s">
-        <v>684</v>
+      <c r="G186">
+        <v>2016</v>
       </c>
       <c r="H186" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -16160,11 +16136,11 @@
       <c r="F187" t="s">
         <v>674</v>
       </c>
-      <c r="G187" t="s">
-        <v>682</v>
+      <c r="G187">
+        <v>2018</v>
       </c>
       <c r="H187" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -16186,11 +16162,11 @@
       <c r="F188" t="s">
         <v>674</v>
       </c>
-      <c r="G188" t="s">
-        <v>682</v>
+      <c r="G188">
+        <v>2018</v>
       </c>
       <c r="H188" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -16212,11 +16188,11 @@
       <c r="F189" t="s">
         <v>674</v>
       </c>
-      <c r="G189" t="s">
-        <v>677</v>
+      <c r="G189">
+        <v>2022</v>
       </c>
       <c r="H189" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -16238,11 +16214,11 @@
       <c r="F190" t="s">
         <v>674</v>
       </c>
-      <c r="G190" t="s">
-        <v>679</v>
+      <c r="G190">
+        <v>2019</v>
       </c>
       <c r="H190" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -16264,11 +16240,11 @@
       <c r="F191" t="s">
         <v>674</v>
       </c>
-      <c r="G191" t="s">
-        <v>682</v>
+      <c r="G191">
+        <v>2018</v>
       </c>
       <c r="H191" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -16290,11 +16266,11 @@
       <c r="F192" t="s">
         <v>674</v>
       </c>
-      <c r="G192" t="s">
-        <v>682</v>
+      <c r="G192">
+        <v>2018</v>
       </c>
       <c r="H192" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -16316,11 +16292,11 @@
       <c r="F193" t="s">
         <v>674</v>
       </c>
-      <c r="G193" t="s">
-        <v>684</v>
+      <c r="G193">
+        <v>2016</v>
       </c>
       <c r="H193" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -16342,11 +16318,11 @@
       <c r="F194" t="s">
         <v>674</v>
       </c>
-      <c r="G194" t="s">
-        <v>682</v>
+      <c r="G194">
+        <v>2018</v>
       </c>
       <c r="H194" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -16368,11 +16344,11 @@
       <c r="F195" t="s">
         <v>674</v>
       </c>
-      <c r="G195" t="s">
-        <v>684</v>
+      <c r="G195">
+        <v>2016</v>
       </c>
       <c r="H195" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -16394,11 +16370,11 @@
       <c r="F196" t="s">
         <v>674</v>
       </c>
-      <c r="G196" t="s">
-        <v>679</v>
+      <c r="G196">
+        <v>2019</v>
       </c>
       <c r="H196" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -16420,11 +16396,11 @@
       <c r="F197" t="s">
         <v>675</v>
       </c>
-      <c r="G197" t="s">
-        <v>677</v>
+      <c r="G197">
+        <v>2022</v>
       </c>
       <c r="H197" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -16446,11 +16422,11 @@
       <c r="F198" t="s">
         <v>675</v>
       </c>
-      <c r="G198" t="s">
-        <v>677</v>
+      <c r="G198">
+        <v>2022</v>
       </c>
       <c r="H198" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -16472,11 +16448,11 @@
       <c r="F199" t="s">
         <v>675</v>
       </c>
-      <c r="G199" t="s">
-        <v>679</v>
+      <c r="G199">
+        <v>2019</v>
       </c>
       <c r="H199" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -16498,11 +16474,11 @@
       <c r="F200" t="s">
         <v>675</v>
       </c>
-      <c r="G200" t="s">
-        <v>680</v>
+      <c r="G200">
+        <v>2023</v>
       </c>
       <c r="H200" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -16524,11 +16500,11 @@
       <c r="F201" t="s">
         <v>675</v>
       </c>
-      <c r="G201" t="s">
-        <v>684</v>
+      <c r="G201">
+        <v>2016</v>
       </c>
       <c r="H201" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -16550,11 +16526,11 @@
       <c r="F202" t="s">
         <v>676</v>
       </c>
-      <c r="G202" t="s">
-        <v>680</v>
+      <c r="G202">
+        <v>2023</v>
       </c>
       <c r="H202" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -16576,11 +16552,11 @@
       <c r="F203" t="s">
         <v>676</v>
       </c>
-      <c r="G203" t="s">
-        <v>683</v>
+      <c r="G203">
+        <v>2021</v>
       </c>
       <c r="H203" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -16602,11 +16578,11 @@
       <c r="F204" t="s">
         <v>676</v>
       </c>
-      <c r="G204" t="s">
-        <v>680</v>
+      <c r="G204">
+        <v>2023</v>
       </c>
       <c r="H204" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -16628,11 +16604,11 @@
       <c r="F205" t="s">
         <v>676</v>
       </c>
-      <c r="G205" t="s">
-        <v>683</v>
+      <c r="G205">
+        <v>2021</v>
       </c>
       <c r="H205" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -16654,11 +16630,11 @@
       <c r="F206" t="s">
         <v>676</v>
       </c>
-      <c r="G206" t="s">
-        <v>680</v>
+      <c r="G206">
+        <v>2023</v>
       </c>
       <c r="H206" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -16680,11 +16656,11 @@
       <c r="F207" t="s">
         <v>674</v>
       </c>
-      <c r="G207" t="s">
-        <v>680</v>
+      <c r="G207">
+        <v>2023</v>
       </c>
       <c r="H207" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -16706,11 +16682,11 @@
       <c r="F208" t="s">
         <v>674</v>
       </c>
-      <c r="G208" t="s">
-        <v>680</v>
+      <c r="G208">
+        <v>2023</v>
       </c>
       <c r="H208" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -16732,11 +16708,11 @@
       <c r="F209" t="s">
         <v>674</v>
       </c>
-      <c r="G209" t="s">
-        <v>684</v>
+      <c r="G209">
+        <v>2016</v>
       </c>
       <c r="H209" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -16758,11 +16734,11 @@
       <c r="F210" t="s">
         <v>674</v>
       </c>
-      <c r="G210" t="s">
-        <v>679</v>
+      <c r="G210">
+        <v>2019</v>
       </c>
       <c r="H210" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -16784,11 +16760,11 @@
       <c r="F211" t="s">
         <v>674</v>
       </c>
-      <c r="G211" t="s">
-        <v>677</v>
+      <c r="G211">
+        <v>2022</v>
       </c>
       <c r="H211" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -16810,11 +16786,11 @@
       <c r="F212" t="s">
         <v>676</v>
       </c>
-      <c r="G212" t="s">
-        <v>679</v>
+      <c r="G212">
+        <v>2019</v>
       </c>
       <c r="H212" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -16836,11 +16812,11 @@
       <c r="F213" t="s">
         <v>676</v>
       </c>
-      <c r="G213" t="s">
-        <v>679</v>
+      <c r="G213">
+        <v>2019</v>
       </c>
       <c r="H213" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -16862,11 +16838,11 @@
       <c r="F214" t="s">
         <v>676</v>
       </c>
-      <c r="G214" t="s">
-        <v>682</v>
+      <c r="G214">
+        <v>2018</v>
       </c>
       <c r="H214" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -16888,11 +16864,11 @@
       <c r="F215" t="s">
         <v>676</v>
       </c>
-      <c r="G215" t="s">
-        <v>681</v>
+      <c r="G215">
+        <v>2017</v>
       </c>
       <c r="H215" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -16914,11 +16890,11 @@
       <c r="F216" t="s">
         <v>676</v>
       </c>
-      <c r="G216" t="s">
-        <v>679</v>
+      <c r="G216">
+        <v>2019</v>
       </c>
       <c r="H216" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -16940,11 +16916,11 @@
       <c r="F217" t="s">
         <v>676</v>
       </c>
-      <c r="G217" t="s">
-        <v>678</v>
+      <c r="G217">
+        <v>2020</v>
       </c>
       <c r="H217" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -16966,11 +16942,11 @@
       <c r="F218" t="s">
         <v>676</v>
       </c>
-      <c r="G218" t="s">
-        <v>679</v>
+      <c r="G218">
+        <v>2019</v>
       </c>
       <c r="H218" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -16992,11 +16968,11 @@
       <c r="F219" t="s">
         <v>676</v>
       </c>
-      <c r="G219" t="s">
-        <v>679</v>
+      <c r="G219">
+        <v>2019</v>
       </c>
       <c r="H219" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -17018,11 +16994,11 @@
       <c r="F220" t="s">
         <v>676</v>
       </c>
-      <c r="G220" t="s">
-        <v>679</v>
+      <c r="G220">
+        <v>2019</v>
       </c>
       <c r="H220" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -17044,11 +17020,11 @@
       <c r="F221" t="s">
         <v>676</v>
       </c>
-      <c r="G221" t="s">
-        <v>681</v>
+      <c r="G221">
+        <v>2017</v>
       </c>
       <c r="H221" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -17070,11 +17046,11 @@
       <c r="F222" t="s">
         <v>674</v>
       </c>
-      <c r="G222" t="s">
-        <v>678</v>
+      <c r="G222">
+        <v>2020</v>
       </c>
       <c r="H222" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -17096,11 +17072,11 @@
       <c r="F223" t="s">
         <v>674</v>
       </c>
-      <c r="G223" t="s">
-        <v>681</v>
+      <c r="G223">
+        <v>2017</v>
       </c>
       <c r="H223" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -17122,11 +17098,11 @@
       <c r="F224" t="s">
         <v>674</v>
       </c>
-      <c r="G224" t="s">
-        <v>683</v>
+      <c r="G224">
+        <v>2021</v>
       </c>
       <c r="H224" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -17148,11 +17124,11 @@
       <c r="F225" t="s">
         <v>674</v>
       </c>
-      <c r="G225" t="s">
-        <v>677</v>
+      <c r="G225">
+        <v>2022</v>
       </c>
       <c r="H225" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -17174,11 +17150,11 @@
       <c r="F226" t="s">
         <v>674</v>
       </c>
-      <c r="G226" t="s">
-        <v>678</v>
+      <c r="G226">
+        <v>2020</v>
       </c>
       <c r="H226" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -17200,11 +17176,11 @@
       <c r="F227" t="s">
         <v>674</v>
       </c>
-      <c r="G227" t="s">
-        <v>678</v>
+      <c r="G227">
+        <v>2020</v>
       </c>
       <c r="H227" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -17226,11 +17202,11 @@
       <c r="F228" t="s">
         <v>674</v>
       </c>
-      <c r="G228" t="s">
-        <v>678</v>
+      <c r="G228">
+        <v>2020</v>
       </c>
       <c r="H228" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -17252,11 +17228,11 @@
       <c r="F229" t="s">
         <v>674</v>
       </c>
-      <c r="G229" t="s">
-        <v>683</v>
+      <c r="G229">
+        <v>2021</v>
       </c>
       <c r="H229" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -17278,11 +17254,11 @@
       <c r="F230" t="s">
         <v>674</v>
       </c>
-      <c r="G230" t="s">
-        <v>681</v>
+      <c r="G230">
+        <v>2017</v>
       </c>
       <c r="H230" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -17304,11 +17280,11 @@
       <c r="F231" t="s">
         <v>674</v>
       </c>
-      <c r="G231" t="s">
-        <v>680</v>
+      <c r="G231">
+        <v>2023</v>
       </c>
       <c r="H231" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -17330,11 +17306,11 @@
       <c r="F232" t="s">
         <v>674</v>
       </c>
-      <c r="G232" t="s">
-        <v>680</v>
+      <c r="G232">
+        <v>2023</v>
       </c>
       <c r="H232" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -17356,11 +17332,11 @@
       <c r="F233" t="s">
         <v>674</v>
       </c>
-      <c r="G233" t="s">
-        <v>680</v>
+      <c r="G233">
+        <v>2023</v>
       </c>
       <c r="H233" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -17382,11 +17358,11 @@
       <c r="F234" t="s">
         <v>674</v>
       </c>
-      <c r="G234" t="s">
-        <v>680</v>
+      <c r="G234">
+        <v>2023</v>
       </c>
       <c r="H234" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -17408,11 +17384,11 @@
       <c r="F235" t="s">
         <v>674</v>
       </c>
-      <c r="G235" t="s">
-        <v>677</v>
+      <c r="G235">
+        <v>2022</v>
       </c>
       <c r="H235" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -17434,11 +17410,11 @@
       <c r="F236" t="s">
         <v>674</v>
       </c>
-      <c r="G236" t="s">
-        <v>678</v>
+      <c r="G236">
+        <v>2020</v>
       </c>
       <c r="H236" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -17460,11 +17436,11 @@
       <c r="F237" t="s">
         <v>674</v>
       </c>
-      <c r="G237" t="s">
-        <v>681</v>
+      <c r="G237">
+        <v>2017</v>
       </c>
       <c r="H237" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -17486,11 +17462,11 @@
       <c r="F238" t="s">
         <v>674</v>
       </c>
-      <c r="G238" t="s">
-        <v>682</v>
+      <c r="G238">
+        <v>2018</v>
       </c>
       <c r="H238" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -17512,11 +17488,11 @@
       <c r="F239" t="s">
         <v>674</v>
       </c>
-      <c r="G239" t="s">
-        <v>678</v>
+      <c r="G239">
+        <v>2020</v>
       </c>
       <c r="H239" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -17538,11 +17514,11 @@
       <c r="F240" t="s">
         <v>674</v>
       </c>
-      <c r="G240" t="s">
-        <v>679</v>
+      <c r="G240">
+        <v>2019</v>
       </c>
       <c r="H240" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -17564,11 +17540,11 @@
       <c r="F241" t="s">
         <v>674</v>
       </c>
-      <c r="G241" t="s">
-        <v>681</v>
+      <c r="G241">
+        <v>2017</v>
       </c>
       <c r="H241" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -17590,11 +17566,11 @@
       <c r="F242" t="s">
         <v>674</v>
       </c>
-      <c r="G242" t="s">
-        <v>681</v>
+      <c r="G242">
+        <v>2017</v>
       </c>
       <c r="H242" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -17616,11 +17592,11 @@
       <c r="F243" t="s">
         <v>674</v>
       </c>
-      <c r="G243" t="s">
-        <v>678</v>
+      <c r="G243">
+        <v>2020</v>
       </c>
       <c r="H243" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -17642,11 +17618,11 @@
       <c r="F244" t="s">
         <v>674</v>
       </c>
-      <c r="G244" t="s">
-        <v>677</v>
+      <c r="G244">
+        <v>2022</v>
       </c>
       <c r="H244" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -17668,11 +17644,11 @@
       <c r="F245" t="s">
         <v>674</v>
       </c>
-      <c r="G245" t="s">
-        <v>677</v>
+      <c r="G245">
+        <v>2022</v>
       </c>
       <c r="H245" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -17694,11 +17670,11 @@
       <c r="F246" t="s">
         <v>674</v>
       </c>
-      <c r="G246" t="s">
-        <v>682</v>
+      <c r="G246">
+        <v>2018</v>
       </c>
       <c r="H246" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -17720,11 +17696,11 @@
       <c r="F247" t="s">
         <v>676</v>
       </c>
-      <c r="G247" t="s">
-        <v>678</v>
+      <c r="G247">
+        <v>2020</v>
       </c>
       <c r="H247" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -17746,11 +17722,11 @@
       <c r="F248" t="s">
         <v>676</v>
       </c>
-      <c r="G248" t="s">
-        <v>677</v>
+      <c r="G248">
+        <v>2022</v>
       </c>
       <c r="H248" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -17772,11 +17748,11 @@
       <c r="F249" t="s">
         <v>676</v>
       </c>
-      <c r="G249" t="s">
-        <v>680</v>
+      <c r="G249">
+        <v>2023</v>
       </c>
       <c r="H249" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -17798,11 +17774,11 @@
       <c r="F250" t="s">
         <v>676</v>
       </c>
-      <c r="G250" t="s">
-        <v>677</v>
+      <c r="G250">
+        <v>2022</v>
       </c>
       <c r="H250" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -17824,11 +17800,11 @@
       <c r="F251" t="s">
         <v>676</v>
       </c>
-      <c r="G251" t="s">
-        <v>682</v>
+      <c r="G251">
+        <v>2018</v>
       </c>
       <c r="H251" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -17850,11 +17826,11 @@
       <c r="F252" t="s">
         <v>674</v>
       </c>
-      <c r="G252" t="s">
-        <v>680</v>
+      <c r="G252">
+        <v>2023</v>
       </c>
       <c r="H252" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -17876,11 +17852,11 @@
       <c r="F253" t="s">
         <v>674</v>
       </c>
-      <c r="G253" t="s">
-        <v>678</v>
+      <c r="G253">
+        <v>2020</v>
       </c>
       <c r="H253" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -17902,11 +17878,11 @@
       <c r="F254" t="s">
         <v>674</v>
       </c>
-      <c r="G254" t="s">
-        <v>678</v>
+      <c r="G254">
+        <v>2020</v>
       </c>
       <c r="H254" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -17928,11 +17904,11 @@
       <c r="F255" t="s">
         <v>674</v>
       </c>
-      <c r="G255" t="s">
-        <v>680</v>
+      <c r="G255">
+        <v>2023</v>
       </c>
       <c r="H255" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -17954,11 +17930,11 @@
       <c r="F256" t="s">
         <v>674</v>
       </c>
-      <c r="G256" t="s">
-        <v>678</v>
+      <c r="G256">
+        <v>2020</v>
       </c>
       <c r="H256" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -17980,11 +17956,11 @@
       <c r="F257" t="s">
         <v>674</v>
       </c>
-      <c r="G257" t="s">
-        <v>684</v>
+      <c r="G257">
+        <v>2016</v>
       </c>
       <c r="H257" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -18006,11 +17982,11 @@
       <c r="F258" t="s">
         <v>674</v>
       </c>
-      <c r="G258" t="s">
-        <v>681</v>
+      <c r="G258">
+        <v>2017</v>
       </c>
       <c r="H258" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -18032,11 +18008,11 @@
       <c r="F259" t="s">
         <v>674</v>
       </c>
-      <c r="G259" t="s">
-        <v>680</v>
+      <c r="G259">
+        <v>2023</v>
       </c>
       <c r="H259" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -18058,11 +18034,11 @@
       <c r="F260" t="s">
         <v>674</v>
       </c>
-      <c r="G260" t="s">
-        <v>683</v>
+      <c r="G260">
+        <v>2021</v>
       </c>
       <c r="H260" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -18084,11 +18060,11 @@
       <c r="F261" t="s">
         <v>674</v>
       </c>
-      <c r="G261" t="s">
-        <v>680</v>
+      <c r="G261">
+        <v>2023</v>
       </c>
       <c r="H261" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -18110,11 +18086,11 @@
       <c r="F262" t="s">
         <v>675</v>
       </c>
-      <c r="G262" t="s">
-        <v>681</v>
+      <c r="G262">
+        <v>2017</v>
       </c>
       <c r="H262" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -18136,11 +18112,11 @@
       <c r="F263" t="s">
         <v>675</v>
       </c>
-      <c r="G263" t="s">
-        <v>681</v>
+      <c r="G263">
+        <v>2017</v>
       </c>
       <c r="H263" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -18162,11 +18138,11 @@
       <c r="F264" t="s">
         <v>675</v>
       </c>
-      <c r="G264" t="s">
-        <v>684</v>
+      <c r="G264">
+        <v>2016</v>
       </c>
       <c r="H264" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -18188,11 +18164,11 @@
       <c r="F265" t="s">
         <v>675</v>
       </c>
-      <c r="G265" t="s">
-        <v>681</v>
+      <c r="G265">
+        <v>2017</v>
       </c>
       <c r="H265" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -18214,11 +18190,11 @@
       <c r="F266" t="s">
         <v>675</v>
       </c>
-      <c r="G266" t="s">
-        <v>681</v>
+      <c r="G266">
+        <v>2017</v>
       </c>
       <c r="H266" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -18240,11 +18216,11 @@
       <c r="F267" t="s">
         <v>675</v>
       </c>
-      <c r="G267" t="s">
-        <v>681</v>
+      <c r="G267">
+        <v>2017</v>
       </c>
       <c r="H267" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -18266,11 +18242,11 @@
       <c r="F268" t="s">
         <v>675</v>
       </c>
-      <c r="G268" t="s">
-        <v>682</v>
+      <c r="G268">
+        <v>2018</v>
       </c>
       <c r="H268" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -18292,11 +18268,11 @@
       <c r="F269" t="s">
         <v>675</v>
       </c>
-      <c r="G269" t="s">
-        <v>684</v>
+      <c r="G269">
+        <v>2016</v>
       </c>
       <c r="H269" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -18318,11 +18294,11 @@
       <c r="F270" t="s">
         <v>675</v>
       </c>
-      <c r="G270" t="s">
-        <v>682</v>
+      <c r="G270">
+        <v>2018</v>
       </c>
       <c r="H270" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -18344,11 +18320,11 @@
       <c r="F271" t="s">
         <v>675</v>
       </c>
-      <c r="G271" t="s">
-        <v>681</v>
+      <c r="G271">
+        <v>2017</v>
       </c>
       <c r="H271" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -18370,11 +18346,11 @@
       <c r="F272" t="s">
         <v>675</v>
       </c>
-      <c r="G272" t="s">
-        <v>681</v>
+      <c r="G272">
+        <v>2017</v>
       </c>
       <c r="H272" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -18396,11 +18372,11 @@
       <c r="F273" t="s">
         <v>675</v>
       </c>
-      <c r="G273" t="s">
-        <v>682</v>
+      <c r="G273">
+        <v>2018</v>
       </c>
       <c r="H273" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -18422,11 +18398,11 @@
       <c r="F274" t="s">
         <v>675</v>
       </c>
-      <c r="G274" t="s">
-        <v>684</v>
+      <c r="G274">
+        <v>2016</v>
       </c>
       <c r="H274" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -18448,11 +18424,11 @@
       <c r="F275" t="s">
         <v>675</v>
       </c>
-      <c r="G275" t="s">
-        <v>682</v>
+      <c r="G275">
+        <v>2018</v>
       </c>
       <c r="H275" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -18474,11 +18450,11 @@
       <c r="F276" t="s">
         <v>675</v>
       </c>
-      <c r="G276" t="s">
-        <v>684</v>
+      <c r="G276">
+        <v>2016</v>
       </c>
       <c r="H276" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -18500,11 +18476,11 @@
       <c r="F277" t="s">
         <v>676</v>
       </c>
-      <c r="G277" t="s">
-        <v>684</v>
+      <c r="G277">
+        <v>2016</v>
       </c>
       <c r="H277" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -18526,11 +18502,11 @@
       <c r="F278" t="s">
         <v>676</v>
       </c>
-      <c r="G278" t="s">
-        <v>684</v>
+      <c r="G278">
+        <v>2016</v>
       </c>
       <c r="H278" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -18552,11 +18528,11 @@
       <c r="F279" t="s">
         <v>676</v>
       </c>
-      <c r="G279" t="s">
-        <v>684</v>
+      <c r="G279">
+        <v>2016</v>
       </c>
       <c r="H279" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -18578,11 +18554,11 @@
       <c r="F280" t="s">
         <v>676</v>
       </c>
-      <c r="G280" t="s">
-        <v>684</v>
+      <c r="G280">
+        <v>2016</v>
       </c>
       <c r="H280" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -18604,11 +18580,11 @@
       <c r="F281" t="s">
         <v>676</v>
       </c>
-      <c r="G281" t="s">
-        <v>684</v>
+      <c r="G281">
+        <v>2016</v>
       </c>
       <c r="H281" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -18630,11 +18606,11 @@
       <c r="F282" t="s">
         <v>676</v>
       </c>
-      <c r="G282" t="s">
-        <v>684</v>
+      <c r="G282">
+        <v>2016</v>
       </c>
       <c r="H282" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -18656,11 +18632,11 @@
       <c r="F283" t="s">
         <v>676</v>
       </c>
-      <c r="G283" t="s">
-        <v>684</v>
+      <c r="G283">
+        <v>2016</v>
       </c>
       <c r="H283" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -18682,11 +18658,11 @@
       <c r="F284" t="s">
         <v>676</v>
       </c>
-      <c r="G284" t="s">
-        <v>684</v>
+      <c r="G284">
+        <v>2016</v>
       </c>
       <c r="H284" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -18708,11 +18684,11 @@
       <c r="F285" t="s">
         <v>676</v>
       </c>
-      <c r="G285" t="s">
-        <v>684</v>
+      <c r="G285">
+        <v>2016</v>
       </c>
       <c r="H285" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -18734,11 +18710,11 @@
       <c r="F286" t="s">
         <v>676</v>
       </c>
-      <c r="G286" t="s">
-        <v>684</v>
+      <c r="G286">
+        <v>2016</v>
       </c>
       <c r="H286" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -18760,11 +18736,11 @@
       <c r="F287" t="s">
         <v>676</v>
       </c>
-      <c r="G287" t="s">
-        <v>681</v>
+      <c r="G287">
+        <v>2017</v>
       </c>
       <c r="H287" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -18786,11 +18762,11 @@
       <c r="F288" t="s">
         <v>676</v>
       </c>
-      <c r="G288" t="s">
-        <v>681</v>
+      <c r="G288">
+        <v>2017</v>
       </c>
       <c r="H288" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -18812,11 +18788,11 @@
       <c r="F289" t="s">
         <v>676</v>
       </c>
-      <c r="G289" t="s">
-        <v>681</v>
+      <c r="G289">
+        <v>2017</v>
       </c>
       <c r="H289" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -18838,11 +18814,11 @@
       <c r="F290" t="s">
         <v>676</v>
       </c>
-      <c r="G290" t="s">
-        <v>681</v>
+      <c r="G290">
+        <v>2017</v>
       </c>
       <c r="H290" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -18864,11 +18840,11 @@
       <c r="F291" t="s">
         <v>676</v>
       </c>
-      <c r="G291" t="s">
-        <v>681</v>
+      <c r="G291">
+        <v>2017</v>
       </c>
       <c r="H291" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -18890,11 +18866,11 @@
       <c r="F292" t="s">
         <v>675</v>
       </c>
-      <c r="G292" t="s">
-        <v>682</v>
+      <c r="G292">
+        <v>2018</v>
       </c>
       <c r="H292" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -18916,11 +18892,11 @@
       <c r="F293" t="s">
         <v>675</v>
       </c>
-      <c r="G293" t="s">
-        <v>681</v>
+      <c r="G293">
+        <v>2017</v>
       </c>
       <c r="H293" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -18942,11 +18918,11 @@
       <c r="F294" t="s">
         <v>675</v>
       </c>
-      <c r="G294" t="s">
-        <v>682</v>
+      <c r="G294">
+        <v>2018</v>
       </c>
       <c r="H294" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -18968,11 +18944,11 @@
       <c r="F295" t="s">
         <v>675</v>
       </c>
-      <c r="G295" t="s">
-        <v>682</v>
+      <c r="G295">
+        <v>2018</v>
       </c>
       <c r="H295" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -18994,11 +18970,11 @@
       <c r="F296" t="s">
         <v>675</v>
       </c>
-      <c r="G296" t="s">
-        <v>681</v>
+      <c r="G296">
+        <v>2017</v>
       </c>
       <c r="H296" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -19020,11 +18996,11 @@
       <c r="F297" t="s">
         <v>674</v>
       </c>
-      <c r="G297" t="s">
-        <v>682</v>
+      <c r="G297">
+        <v>2018</v>
       </c>
       <c r="H297" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -19046,11 +19022,11 @@
       <c r="F298" t="s">
         <v>674</v>
       </c>
-      <c r="G298" t="s">
-        <v>681</v>
+      <c r="G298">
+        <v>2017</v>
       </c>
       <c r="H298" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -19072,11 +19048,11 @@
       <c r="F299" t="s">
         <v>674</v>
       </c>
-      <c r="G299" t="s">
-        <v>682</v>
+      <c r="G299">
+        <v>2018</v>
       </c>
       <c r="H299" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -19098,11 +19074,11 @@
       <c r="F300" t="s">
         <v>674</v>
       </c>
-      <c r="G300" t="s">
-        <v>682</v>
+      <c r="G300">
+        <v>2018</v>
       </c>
       <c r="H300" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -19124,11 +19100,11 @@
       <c r="F301" t="s">
         <v>674</v>
       </c>
-      <c r="G301" t="s">
-        <v>682</v>
+      <c r="G301">
+        <v>2018</v>
       </c>
       <c r="H301" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
